--- a/gerar-respostas/RESPOSTAS_FORMS.xlsx
+++ b/gerar-respostas/RESPOSTAS_FORMS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnappi\Desktop\RESPOSTAS_TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnappi\Documents\GitHub\ftt-tcc\gerar-respostas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{57EC70C8-CAA8-430F-B1B5-81D8284A51E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889B1DBD-567F-413D-975B-4C95D5894708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{43852346-1AB5-4EDA-ADB8-369B54BE4E39}"/>
   </bookViews>
@@ -29,10 +29,10 @@
     <sheet name="Q12" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resultados!$P$1:$R$49</definedName>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">Respostas!$A$1:$AR$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="197">
   <si>
     <t>Timestamp</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>KNN</t>
+  </si>
+  <si>
+    <t>Acertos</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,16 +760,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8320,11 +8323,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7600969F-F2A8-4578-AF68-29F2E63B3E12}">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="A1:U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8334,3864 +8337,4060 @@
     <col min="3" max="3" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="19" width="9.140625" style="4"/>
     <col min="20" max="20" width="33.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="3"/>
+    <col min="21" max="21" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="11">
         <v>4</v>
       </c>
-      <c r="Q1" s="9">
+      <c r="Q1" s="11">
         <v>5</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="11">
         <v>6</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="11" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="str" cm="1">
+      <c r="U1" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="str" cm="1">
         <f t="array" ref="A2:A49">TCC___Revisado[Caso tenha interesse, informe seu e-mail para receber uma cópia do trabalho:]</f>
         <v/>
       </c>
-      <c r="B2" s="10" t="str" cm="1">
+      <c r="B2" s="8" t="str" cm="1">
         <f t="array" ref="B2:B49">TCC___Revisado[Total score]</f>
         <v>4.00 / 12</v>
       </c>
-      <c r="C2" s="10" t="str" cm="1">
+      <c r="C2" s="8" t="str" cm="1">
         <f t="array" ref="C2:C49">TCC___Revisado[Qual a sua escolaridade?]</f>
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
         <f>IF(Respostas!I2='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I2='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I2='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I2='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <f>IF(Respostas!L2='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L2='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L2='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L2='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <f>IF(Respostas!O2='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O2='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O2='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O2='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="9">
         <f>IF(Respostas!R2='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R2='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R2='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R2='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <f>IF(Respostas!U2='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U2='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U2='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U2='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>65</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="9">
         <f>IF(Respostas!X2='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X2='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X2='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X2='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>70</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="9">
         <f>IF(Respostas!AA2='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA2='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA2='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA2='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>73</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="9">
         <f>IF(Respostas!AD2='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD2='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD2='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD2='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="9">
         <f>IF(Respostas!AG2='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG2='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG2='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG2='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="9">
         <f>IF(Respostas!AJ2='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ2='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ2='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ2='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="9">
         <f>IF(Respostas!AM2='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM2='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM2='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM2='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>89</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="9">
         <f>IF(Respostas!AP2='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP2='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP2='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP2='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>93</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="9">
         <f>SUM(IF(D2='Q1'!$D$2,0,1),IF(E2='Q2'!$D$2,0,1),IF(F2='Q3'!$D$2,0,1),IF(G2='Q4'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="9">
         <f>SUM(IF(H2='Q5'!$D$2,0,1),IF(I2='Q6'!$D$2,0,1),IF(J2='Q7'!$D$2,0,1),IF(K2='Q8'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="9">
         <f>SUM(IF(L2='Q9'!$D$2,0,1),IF(M2='Q10'!$D$2,0,1),IF(N2='Q11'!$D$2,0,1),IF(O2='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="9">
         <f>IF(AND(P2&gt;=Q2,P2&gt;=R2),$P$1,IF(AND(Q2&gt;=P2,Q2&gt;=R2),$Q$1,IF(AND(R2&gt;=P2,R2&gt;=Q2),$R$1,0)))</f>
         <v>5</v>
       </c>
-      <c r="T2" s="10" t="str">
+      <c r="T2" s="8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,D2:O2,S2)</f>
         <v>52,53,60,62,65,70,73,79,82,86,89,93,5</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str">
+      <c r="U2" s="8" t="str">
+        <f>IF(D2='Q1'!$D$2,1,0)&amp;","&amp;IF(E2='Q2'!$D$2,1,0)&amp;","&amp;IF(F2='Q3'!$D$2,1,0)&amp;","&amp;IF(G2='Q4'!$D$2,1,0)&amp;","&amp;IF(H2='Q5'!$D$2,1,0)&amp;","&amp;IF(I2='Q6'!$D$2,1,0)&amp;","&amp;IF(J2='Q7'!$D$2,1,0)&amp;","&amp;IF(K2='Q8'!$D$2,1,0)&amp;","&amp;IF(L2='Q9'!$D$2,1,0)&amp;","&amp;IF(M2='Q10'!$D$2,1,0)&amp;","&amp;IF(N2='Q11'!$D$2,1,0)&amp;","&amp;IF(O2='Q12'!$D$2,1,0)&amp;","&amp;S2</f>
+        <v>1,1,1,1,0,0,0,0,0,1,0,0,5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="str">
         <v/>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="8" t="str">
         <v>6.00 / 12</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="8" t="str">
         <v>Pós-graduação / MBA</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <f>IF(Respostas!I3='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I3='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I3='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I3='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>50</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <f>IF(Respostas!L3='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L3='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L3='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L3='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <f>IF(Respostas!O3='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O3='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O3='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O3='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <f>IF(Respostas!R3='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R3='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R3='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R3='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <f>IF(Respostas!U3='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U3='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U3='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U3='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <f>IF(Respostas!X3='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X3='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X3='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X3='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>70</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <f>IF(Respostas!AA3='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA3='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA3='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA3='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>73</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <f>IF(Respostas!AD3='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD3='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD3='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD3='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <f>IF(Respostas!AG3='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG3='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG3='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG3='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <f>IF(Respostas!AJ3='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ3='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ3='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ3='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>87</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="9">
         <f>IF(Respostas!AM3='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM3='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM3='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM3='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="9">
         <f>IF(Respostas!AP3='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP3='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP3='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP3='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="9">
         <f>SUM(IF(D3='Q1'!$D$2,0,1),IF(E3='Q2'!$D$2,0,1),IF(F3='Q3'!$D$2,0,1),IF(G3='Q4'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="9">
         <f>SUM(IF(H3='Q5'!$D$2,0,1),IF(I3='Q6'!$D$2,0,1),IF(J3='Q7'!$D$2,0,1),IF(K3='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="9">
         <f>SUM(IF(L3='Q9'!$D$2,0,1),IF(M3='Q10'!$D$2,0,1),IF(N3='Q11'!$D$2,0,1),IF(O3='Q12'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="9">
         <f t="shared" ref="S3:S49" si="0">IF(AND(P3&gt;=Q3,P3&gt;=R3),$P$1,IF(AND(Q3&gt;=P3,Q3&gt;=R3),$Q$1,IF(AND(R3&gt;=P3,R3&gt;=Q3),$R$1,0)))</f>
         <v>5</v>
       </c>
-      <c r="T3" s="10" t="str">
+      <c r="T3" s="8" t="str">
         <f t="shared" ref="T3:T49" si="1">_xlfn.TEXTJOIN(",",TRUE,D3:O3,S3)</f>
         <v>50,53,60,62,68,70,73,77,83,87,91,94,5</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="str">
+      <c r="U3" s="8" t="str">
+        <f>IF(D3='Q1'!$D$2,1,0)&amp;","&amp;IF(E3='Q2'!$D$2,1,0)&amp;","&amp;IF(F3='Q3'!$D$2,1,0)&amp;","&amp;IF(G3='Q4'!$D$2,1,0)&amp;","&amp;IF(H3='Q5'!$D$2,1,0)&amp;","&amp;IF(I3='Q6'!$D$2,1,0)&amp;","&amp;IF(J3='Q7'!$D$2,1,0)&amp;","&amp;IF(K3='Q8'!$D$2,1,0)&amp;","&amp;IF(L3='Q9'!$D$2,1,0)&amp;","&amp;IF(M3='Q10'!$D$2,1,0)&amp;","&amp;IF(N3='Q11'!$D$2,1,0)&amp;","&amp;IF(O3='Q12'!$D$2,1,0)&amp;","&amp;S3</f>
+        <v>0,1,1,1,1,0,0,1,1,0,0,1,5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="str">
         <v>Wollyrrbn@hotmail.com</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="8" t="str">
         <v>3.00 / 12</v>
       </c>
-      <c r="C4" s="10" t="str">
+      <c r="C4" s="8" t="str">
         <v>Pós-graduação / MBA</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <f>IF(Respostas!I4='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I4='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I4='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I4='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <f>IF(Respostas!L4='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L4='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L4='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L4='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <f>IF(Respostas!O4='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O4='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O4='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O4='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <f>IF(Respostas!R4='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R4='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R4='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R4='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>64</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <f>IF(Respostas!U4='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U4='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U4='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U4='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <f>IF(Respostas!X4='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X4='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X4='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X4='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <f>IF(Respostas!AA4='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA4='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA4='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA4='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <f>IF(Respostas!AD4='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD4='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD4='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD4='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>80</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <f>IF(Respostas!AG4='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG4='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG4='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG4='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>84</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="9">
         <f>IF(Respostas!AJ4='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ4='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ4='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ4='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>88</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <f>IF(Respostas!AM4='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM4='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM4='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM4='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="9">
         <f>IF(Respostas!AP4='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP4='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP4='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP4='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="9">
         <f>SUM(IF(D4='Q1'!$D$2,0,1),IF(E4='Q2'!$D$2,0,1),IF(F4='Q3'!$D$2,0,1),IF(G4='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="9">
         <f>SUM(IF(H4='Q5'!$D$2,0,1),IF(I4='Q6'!$D$2,0,1),IF(J4='Q7'!$D$2,0,1),IF(K4='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="9">
         <f>SUM(IF(L4='Q9'!$D$2,0,1),IF(M4='Q10'!$D$2,0,1),IF(N4='Q11'!$D$2,0,1),IF(O4='Q12'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T4" s="10" t="str">
+      <c r="T4" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,53,60,64,68,71,76,80,84,88,90,95,6</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="str">
+      <c r="U4" s="8" t="str">
+        <f>IF(D4='Q1'!$D$2,1,0)&amp;","&amp;IF(E4='Q2'!$D$2,1,0)&amp;","&amp;IF(F4='Q3'!$D$2,1,0)&amp;","&amp;IF(G4='Q4'!$D$2,1,0)&amp;","&amp;IF(H4='Q5'!$D$2,1,0)&amp;","&amp;IF(I4='Q6'!$D$2,1,0)&amp;","&amp;IF(J4='Q7'!$D$2,1,0)&amp;","&amp;IF(K4='Q8'!$D$2,1,0)&amp;","&amp;IF(L4='Q9'!$D$2,1,0)&amp;","&amp;IF(M4='Q10'!$D$2,1,0)&amp;","&amp;IF(N4='Q11'!$D$2,1,0)&amp;","&amp;IF(O4='Q12'!$D$2,1,0)&amp;","&amp;S4</f>
+        <v>0,1,1,0,1,0,1,0,0,0,0,0,6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="str">
         <v>je.cristina 1999@gmail.com</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="8" t="str">
         <v>2.00 / 12</v>
       </c>
-      <c r="C5" s="10" t="str">
+      <c r="C5" s="8" t="str">
         <v>Pós-graduação / MBA</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <f>IF(Respostas!I5='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I5='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I5='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I5='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f>IF(Respostas!L5='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L5='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L5='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L5='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <f>IF(Respostas!O5='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O5='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O5='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O5='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <f>IF(Respostas!R5='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R5='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R5='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R5='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>64</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <f>IF(Respostas!U5='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U5='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U5='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U5='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <f>IF(Respostas!X5='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X5='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X5='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X5='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <f>IF(Respostas!AA5='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA5='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA5='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA5='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>73</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <f>IF(Respostas!AD5='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD5='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD5='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD5='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>80</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="9">
         <f>IF(Respostas!AG5='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG5='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG5='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG5='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>84</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="9">
         <f>IF(Respostas!AJ5='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ5='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ5='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ5='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>85</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="9">
         <f>IF(Respostas!AM5='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM5='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM5='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM5='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>89</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="9">
         <f>IF(Respostas!AP5='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP5='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP5='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP5='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="9">
         <f>SUM(IF(D5='Q1'!$D$2,0,1),IF(E5='Q2'!$D$2,0,1),IF(F5='Q3'!$D$2,0,1),IF(G5='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="9">
         <f>SUM(IF(H5='Q5'!$D$2,0,1),IF(I5='Q6'!$D$2,0,1),IF(J5='Q7'!$D$2,0,1),IF(K5='Q8'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="9">
         <f>SUM(IF(L5='Q9'!$D$2,0,1),IF(M5='Q10'!$D$2,0,1),IF(N5='Q11'!$D$2,0,1),IF(O5='Q12'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T5" s="10" t="str">
+      <c r="T5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,53,60,64,68,71,73,80,84,85,89,95,6</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="str">
+      <c r="U5" s="8" t="str">
+        <f>IF(D5='Q1'!$D$2,1,0)&amp;","&amp;IF(E5='Q2'!$D$2,1,0)&amp;","&amp;IF(F5='Q3'!$D$2,1,0)&amp;","&amp;IF(G5='Q4'!$D$2,1,0)&amp;","&amp;IF(H5='Q5'!$D$2,1,0)&amp;","&amp;IF(I5='Q6'!$D$2,1,0)&amp;","&amp;IF(J5='Q7'!$D$2,1,0)&amp;","&amp;IF(K5='Q8'!$D$2,1,0)&amp;","&amp;IF(L5='Q9'!$D$2,1,0)&amp;","&amp;IF(M5='Q10'!$D$2,1,0)&amp;","&amp;IF(N5='Q11'!$D$2,1,0)&amp;","&amp;IF(O5='Q12'!$D$2,1,0)&amp;","&amp;S5</f>
+        <v>0,1,1,0,1,0,0,0,0,0,0,0,6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="str">
         <v/>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="8" t="str">
         <v>2.00 / 12</v>
       </c>
-      <c r="C6" s="10" t="str">
+      <c r="C6" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f>IF(Respostas!I6='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I6='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I6='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I6='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>49</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f>IF(Respostas!L6='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L6='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L6='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L6='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>54</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f>IF(Respostas!O6='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O6='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O6='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O6='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <f>IF(Respostas!R6='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R6='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R6='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R6='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>63</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <f>IF(Respostas!U6='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U6='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U6='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U6='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>66</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <f>IF(Respostas!X6='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X6='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X6='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X6='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>69</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <f>IF(Respostas!AA6='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA6='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA6='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA6='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <f>IF(Respostas!AD6='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD6='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD6='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD6='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <f>IF(Respostas!AG6='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG6='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG6='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG6='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>84</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <f>IF(Respostas!AJ6='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ6='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ6='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ6='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="9">
         <f>IF(Respostas!AM6='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM6='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM6='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM6='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="9">
         <f>IF(Respostas!AP6='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP6='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP6='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP6='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>96</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="9">
         <f>SUM(IF(D6='Q1'!$D$2,0,1),IF(E6='Q2'!$D$2,0,1),IF(F6='Q3'!$D$2,0,1),IF(G6='Q4'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="9">
         <f>SUM(IF(H6='Q5'!$D$2,0,1),IF(I6='Q6'!$D$2,0,1),IF(J6='Q7'!$D$2,0,1),IF(K6='Q8'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="9">
         <f>SUM(IF(L6='Q9'!$D$2,0,1),IF(M6='Q10'!$D$2,0,1),IF(N6='Q11'!$D$2,0,1),IF(O6='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T6" s="10" t="str">
+      <c r="T6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>49,54,60,63,66,69,76,79,84,86,90,96,4</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="str">
+      <c r="U6" s="8" t="str">
+        <f>IF(D6='Q1'!$D$2,1,0)&amp;","&amp;IF(E6='Q2'!$D$2,1,0)&amp;","&amp;IF(F6='Q3'!$D$2,1,0)&amp;","&amp;IF(G6='Q4'!$D$2,1,0)&amp;","&amp;IF(H6='Q5'!$D$2,1,0)&amp;","&amp;IF(I6='Q6'!$D$2,1,0)&amp;","&amp;IF(J6='Q7'!$D$2,1,0)&amp;","&amp;IF(K6='Q8'!$D$2,1,0)&amp;","&amp;IF(L6='Q9'!$D$2,1,0)&amp;","&amp;IF(M6='Q10'!$D$2,1,0)&amp;","&amp;IF(N6='Q11'!$D$2,1,0)&amp;","&amp;IF(O6='Q12'!$D$2,1,0)&amp;","&amp;S6</f>
+        <v>0,0,1,0,0,0,1,0,0,1,0,0,4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="str">
         <v/>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="8" t="str">
         <v>4.00 / 12</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <f>IF(Respostas!I7='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I7='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I7='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I7='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>50</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f>IF(Respostas!L7='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L7='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L7='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L7='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f>IF(Respostas!O7='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O7='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O7='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O7='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>58</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <f>IF(Respostas!R7='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R7='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R7='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R7='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <f>IF(Respostas!U7='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U7='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U7='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U7='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>65</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="9">
         <f>IF(Respostas!X7='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X7='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X7='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X7='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <f>IF(Respostas!AA7='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA7='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA7='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA7='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>73</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <f>IF(Respostas!AD7='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD7='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD7='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD7='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="9">
         <f>IF(Respostas!AG7='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG7='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG7='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG7='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="9">
         <f>IF(Respostas!AJ7='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ7='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ7='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ7='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>85</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="9">
         <f>IF(Respostas!AM7='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM7='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM7='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM7='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>89</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="9">
         <f>IF(Respostas!AP7='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP7='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP7='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP7='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="9">
         <f>SUM(IF(D7='Q1'!$D$2,0,1),IF(E7='Q2'!$D$2,0,1),IF(F7='Q3'!$D$2,0,1),IF(G7='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="9">
         <f>SUM(IF(H7='Q5'!$D$2,0,1),IF(I7='Q6'!$D$2,0,1),IF(J7='Q7'!$D$2,0,1),IF(K7='Q8'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="9">
         <f>SUM(IF(L7='Q9'!$D$2,0,1),IF(M7='Q10'!$D$2,0,1),IF(N7='Q11'!$D$2,0,1),IF(O7='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T7" s="10" t="str">
+      <c r="T7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>50,53,58,62,65,71,73,79,83,85,89,95,5</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="str">
+      <c r="U7" s="8" t="str">
+        <f>IF(D7='Q1'!$D$2,1,0)&amp;","&amp;IF(E7='Q2'!$D$2,1,0)&amp;","&amp;IF(F7='Q3'!$D$2,1,0)&amp;","&amp;IF(G7='Q4'!$D$2,1,0)&amp;","&amp;IF(H7='Q5'!$D$2,1,0)&amp;","&amp;IF(I7='Q6'!$D$2,1,0)&amp;","&amp;IF(J7='Q7'!$D$2,1,0)&amp;","&amp;IF(K7='Q8'!$D$2,1,0)&amp;","&amp;IF(L7='Q9'!$D$2,1,0)&amp;","&amp;IF(M7='Q10'!$D$2,1,0)&amp;","&amp;IF(N7='Q11'!$D$2,1,0)&amp;","&amp;IF(O7='Q12'!$D$2,1,0)&amp;","&amp;S7</f>
+        <v>0,1,0,1,0,0,0,0,1,0,0,0,5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="str">
         <v/>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="8" t="str">
         <v>9.00 / 12</v>
       </c>
-      <c r="C8" s="10" t="str">
+      <c r="C8" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f>IF(Respostas!I8='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I8='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I8='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I8='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f>IF(Respostas!L8='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L8='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L8='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L8='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f>IF(Respostas!O8='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O8='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O8='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O8='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>58</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <f>IF(Respostas!R8='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R8='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R8='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R8='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <f>IF(Respostas!U8='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U8='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U8='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U8='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>66</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <f>IF(Respostas!X8='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X8='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X8='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X8='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <f>IF(Respostas!AA8='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA8='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA8='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA8='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <f>IF(Respostas!AD8='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD8='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD8='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD8='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <f>IF(Respostas!AG8='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG8='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG8='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG8='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="9">
         <f>IF(Respostas!AJ8='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ8='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ8='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ8='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="9">
         <f>IF(Respostas!AM8='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM8='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM8='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM8='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="9">
         <f>IF(Respostas!AP8='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP8='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP8='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP8='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="9">
         <f>SUM(IF(D8='Q1'!$D$2,0,1),IF(E8='Q2'!$D$2,0,1),IF(F8='Q3'!$D$2,0,1),IF(G8='Q4'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="9">
         <f>SUM(IF(H8='Q5'!$D$2,0,1),IF(I8='Q6'!$D$2,0,1),IF(J8='Q7'!$D$2,0,1),IF(K8='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="9">
         <f>SUM(IF(L8='Q9'!$D$2,0,1),IF(M8='Q10'!$D$2,0,1),IF(N8='Q11'!$D$2,0,1),IF(O8='Q12'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T8" s="10" t="str">
+      <c r="T8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,58,62,66,71,76,77,83,86,91,94,5</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="str">
+      <c r="U8" s="8" t="str">
+        <f>IF(D8='Q1'!$D$2,1,0)&amp;","&amp;IF(E8='Q2'!$D$2,1,0)&amp;","&amp;IF(F8='Q3'!$D$2,1,0)&amp;","&amp;IF(G8='Q4'!$D$2,1,0)&amp;","&amp;IF(H8='Q5'!$D$2,1,0)&amp;","&amp;IF(I8='Q6'!$D$2,1,0)&amp;","&amp;IF(J8='Q7'!$D$2,1,0)&amp;","&amp;IF(K8='Q8'!$D$2,1,0)&amp;","&amp;IF(L8='Q9'!$D$2,1,0)&amp;","&amp;IF(M8='Q10'!$D$2,1,0)&amp;","&amp;IF(N8='Q11'!$D$2,1,0)&amp;","&amp;IF(O8='Q12'!$D$2,1,0)&amp;","&amp;S8</f>
+        <v>1,1,0,1,0,0,1,1,1,1,0,1,5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="str">
         <v>deboragiolo@yahoo.com.br</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="8" t="str">
         <v>5.00 / 12</v>
       </c>
-      <c r="C9" s="10" t="str">
+      <c r="C9" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <f>IF(Respostas!I9='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I9='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I9='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I9='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f>IF(Respostas!L9='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L9='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L9='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L9='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <f>IF(Respostas!O9='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O9='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O9='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O9='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <f>IF(Respostas!R9='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R9='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R9='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R9='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <f>IF(Respostas!U9='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U9='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U9='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U9='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <f>IF(Respostas!X9='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X9='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X9='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X9='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <f>IF(Respostas!AA9='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA9='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA9='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA9='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>74</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <f>IF(Respostas!AD9='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD9='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD9='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD9='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>78</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <f>IF(Respostas!AG9='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG9='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG9='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG9='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="9">
         <f>IF(Respostas!AJ9='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ9='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ9='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ9='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>85</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="9">
         <f>IF(Respostas!AM9='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM9='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM9='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM9='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="9">
         <f>IF(Respostas!AP9='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP9='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP9='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP9='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>93</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="9">
         <f>SUM(IF(D9='Q1'!$D$2,0,1),IF(E9='Q2'!$D$2,0,1),IF(F9='Q3'!$D$2,0,1),IF(G9='Q4'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="9">
         <f>SUM(IF(H9='Q5'!$D$2,0,1),IF(I9='Q6'!$D$2,0,1),IF(J9='Q7'!$D$2,0,1),IF(K9='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="9">
         <f>SUM(IF(L9='Q9'!$D$2,0,1),IF(M9='Q10'!$D$2,0,1),IF(N9='Q11'!$D$2,0,1),IF(O9='Q12'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T9" s="10" t="str">
+      <c r="T9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,60,62,68,72,74,78,82,85,91,93,6</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="str">
+      <c r="U9" s="8" t="str">
+        <f>IF(D9='Q1'!$D$2,1,0)&amp;","&amp;IF(E9='Q2'!$D$2,1,0)&amp;","&amp;IF(F9='Q3'!$D$2,1,0)&amp;","&amp;IF(G9='Q4'!$D$2,1,0)&amp;","&amp;IF(H9='Q5'!$D$2,1,0)&amp;","&amp;IF(I9='Q6'!$D$2,1,0)&amp;","&amp;IF(J9='Q7'!$D$2,1,0)&amp;","&amp;IF(K9='Q8'!$D$2,1,0)&amp;","&amp;IF(L9='Q9'!$D$2,1,0)&amp;","&amp;IF(M9='Q10'!$D$2,1,0)&amp;","&amp;IF(N9='Q11'!$D$2,1,0)&amp;","&amp;IF(O9='Q12'!$D$2,1,0)&amp;","&amp;S9</f>
+        <v>1,1,1,1,1,1,0,0,0,0,0,0,6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="str">
         <v/>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="8" t="str">
         <v>6.00 / 12</v>
       </c>
-      <c r="C10" s="10" t="str">
+      <c r="C10" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <f>IF(Respostas!I10='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I10='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I10='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I10='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <f>IF(Respostas!L10='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L10='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L10='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L10='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <f>IF(Respostas!O10='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O10='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O10='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O10='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <f>IF(Respostas!R10='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R10='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R10='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R10='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <f>IF(Respostas!U10='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U10='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U10='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U10='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <f>IF(Respostas!X10='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X10='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X10='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X10='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>70</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="9">
         <f>IF(Respostas!AA10='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA10='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA10='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA10='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>74</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <f>IF(Respostas!AD10='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD10='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD10='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD10='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="9">
         <f>IF(Respostas!AG10='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG10='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG10='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG10='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="9">
         <f>IF(Respostas!AJ10='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ10='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ10='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ10='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>87</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="9">
         <f>IF(Respostas!AM10='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM10='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM10='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM10='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="9">
         <f>IF(Respostas!AP10='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP10='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP10='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP10='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="9">
         <f>SUM(IF(D10='Q1'!$D$2,0,1),IF(E10='Q2'!$D$2,0,1),IF(F10='Q3'!$D$2,0,1),IF(G10='Q4'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="9">
         <f>SUM(IF(H10='Q5'!$D$2,0,1),IF(I10='Q6'!$D$2,0,1),IF(J10='Q7'!$D$2,0,1),IF(K10='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="9">
         <f>SUM(IF(L10='Q9'!$D$2,0,1),IF(M10='Q10'!$D$2,0,1),IF(N10='Q11'!$D$2,0,1),IF(O10='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T10" s="10" t="str">
+      <c r="T10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,60,62,68,70,74,77,83,87,90,95,6</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="str">
+      <c r="U10" s="8" t="str">
+        <f>IF(D10='Q1'!$D$2,1,0)&amp;","&amp;IF(E10='Q2'!$D$2,1,0)&amp;","&amp;IF(F10='Q3'!$D$2,1,0)&amp;","&amp;IF(G10='Q4'!$D$2,1,0)&amp;","&amp;IF(H10='Q5'!$D$2,1,0)&amp;","&amp;IF(I10='Q6'!$D$2,1,0)&amp;","&amp;IF(J10='Q7'!$D$2,1,0)&amp;","&amp;IF(K10='Q8'!$D$2,1,0)&amp;","&amp;IF(L10='Q9'!$D$2,1,0)&amp;","&amp;IF(M10='Q10'!$D$2,1,0)&amp;","&amp;IF(N10='Q11'!$D$2,1,0)&amp;","&amp;IF(O10='Q12'!$D$2,1,0)&amp;","&amp;S10</f>
+        <v>1,1,1,1,1,0,0,1,1,0,0,0,6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="str">
         <v>agata_aleixo@hotmail.com</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="8" t="str">
         <v>6.00 / 12</v>
       </c>
-      <c r="C11" s="10" t="str">
+      <c r="C11" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <f>IF(Respostas!I11='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I11='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I11='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I11='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>49</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <f>IF(Respostas!L11='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L11='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L11='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L11='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <f>IF(Respostas!O11='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O11='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O11='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O11='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <f>IF(Respostas!R11='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R11='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R11='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R11='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>64</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <f>IF(Respostas!U11='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U11='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U11='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U11='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <f>IF(Respostas!X11='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X11='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X11='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X11='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <f>IF(Respostas!AA11='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA11='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA11='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA11='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>75</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <f>IF(Respostas!AD11='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD11='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD11='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD11='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="9">
         <f>IF(Respostas!AG11='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG11='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG11='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG11='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="9">
         <f>IF(Respostas!AJ11='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ11='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ11='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ11='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>85</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="9">
         <f>IF(Respostas!AM11='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM11='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM11='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM11='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>89</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="9">
         <f>IF(Respostas!AP11='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP11='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP11='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP11='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="9">
         <f>SUM(IF(D11='Q1'!$D$2,0,1),IF(E11='Q2'!$D$2,0,1),IF(F11='Q3'!$D$2,0,1),IF(G11='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="9">
         <f>SUM(IF(H11='Q5'!$D$2,0,1),IF(I11='Q6'!$D$2,0,1),IF(J11='Q7'!$D$2,0,1),IF(K11='Q8'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="9">
         <f>SUM(IF(L11='Q9'!$D$2,0,1),IF(M11='Q10'!$D$2,0,1),IF(N11='Q11'!$D$2,0,1),IF(O11='Q12'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T11" s="10" t="str">
+      <c r="T11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>49,53,60,64,68,72,75,77,83,85,89,94,4</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="str">
+      <c r="U11" s="8" t="str">
+        <f>IF(D11='Q1'!$D$2,1,0)&amp;","&amp;IF(E11='Q2'!$D$2,1,0)&amp;","&amp;IF(F11='Q3'!$D$2,1,0)&amp;","&amp;IF(G11='Q4'!$D$2,1,0)&amp;","&amp;IF(H11='Q5'!$D$2,1,0)&amp;","&amp;IF(I11='Q6'!$D$2,1,0)&amp;","&amp;IF(J11='Q7'!$D$2,1,0)&amp;","&amp;IF(K11='Q8'!$D$2,1,0)&amp;","&amp;IF(L11='Q9'!$D$2,1,0)&amp;","&amp;IF(M11='Q10'!$D$2,1,0)&amp;","&amp;IF(N11='Q11'!$D$2,1,0)&amp;","&amp;IF(O11='Q12'!$D$2,1,0)&amp;","&amp;S11</f>
+        <v>0,1,1,0,1,1,0,1,1,0,0,1,4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="str">
         <v>gasathile@gmail.com</v>
       </c>
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="8" t="str">
         <v>6.00 / 12</v>
       </c>
-      <c r="C12" s="10" t="str">
+      <c r="C12" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <f>IF(Respostas!I12='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I12='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I12='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I12='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <f>IF(Respostas!L12='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L12='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L12='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L12='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <f>IF(Respostas!O12='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O12='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O12='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O12='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>58</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <f>IF(Respostas!R12='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R12='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R12='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R12='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <f>IF(Respostas!U12='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U12='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U12='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U12='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="9">
         <f>IF(Respostas!X12='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X12='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X12='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X12='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>70</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <f>IF(Respostas!AA12='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA12='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA12='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA12='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <f>IF(Respostas!AD12='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD12='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD12='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD12='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="9">
         <f>IF(Respostas!AG12='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG12='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG12='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG12='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="9">
         <f>IF(Respostas!AJ12='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ12='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ12='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ12='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>88</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="9">
         <f>IF(Respostas!AM12='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM12='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM12='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM12='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>92</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="9">
         <f>IF(Respostas!AP12='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP12='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP12='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP12='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="9">
         <f>SUM(IF(D12='Q1'!$D$2,0,1),IF(E12='Q2'!$D$2,0,1),IF(F12='Q3'!$D$2,0,1),IF(G12='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="9">
         <f>SUM(IF(H12='Q5'!$D$2,0,1),IF(I12='Q6'!$D$2,0,1),IF(J12='Q7'!$D$2,0,1),IF(K12='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="9">
         <f>SUM(IF(L12='Q9'!$D$2,0,1),IF(M12='Q10'!$D$2,0,1),IF(N12='Q11'!$D$2,0,1),IF(O12='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T12" s="10" t="str">
+      <c r="T12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,53,58,62,68,70,76,79,82,88,92,95,6</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="str">
+      <c r="U12" s="8" t="str">
+        <f>IF(D12='Q1'!$D$2,1,0)&amp;","&amp;IF(E12='Q2'!$D$2,1,0)&amp;","&amp;IF(F12='Q3'!$D$2,1,0)&amp;","&amp;IF(G12='Q4'!$D$2,1,0)&amp;","&amp;IF(H12='Q5'!$D$2,1,0)&amp;","&amp;IF(I12='Q6'!$D$2,1,0)&amp;","&amp;IF(J12='Q7'!$D$2,1,0)&amp;","&amp;IF(K12='Q8'!$D$2,1,0)&amp;","&amp;IF(L12='Q9'!$D$2,1,0)&amp;","&amp;IF(M12='Q10'!$D$2,1,0)&amp;","&amp;IF(N12='Q11'!$D$2,1,0)&amp;","&amp;IF(O12='Q12'!$D$2,1,0)&amp;","&amp;S12</f>
+        <v>0,1,0,1,1,0,1,0,0,0,1,0,6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
         <v xml:space="preserve">leo.mir@gmail.com </v>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="8" t="str">
         <v>8.00 / 12</v>
       </c>
-      <c r="C13" s="10" t="str">
+      <c r="C13" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <f>IF(Respostas!I13='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I13='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I13='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I13='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <f>IF(Respostas!L13='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L13='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L13='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L13='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <f>IF(Respostas!O13='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O13='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O13='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O13='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>58</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9">
         <f>IF(Respostas!R13='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R13='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R13='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R13='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <f>IF(Respostas!U13='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U13='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U13='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U13='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="9">
         <f>IF(Respostas!X13='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X13='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X13='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X13='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="9">
         <f>IF(Respostas!AA13='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA13='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA13='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA13='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="9">
         <f>IF(Respostas!AD13='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD13='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD13='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD13='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>78</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="9">
         <f>IF(Respostas!AG13='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG13='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG13='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG13='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="9">
         <f>IF(Respostas!AJ13='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ13='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ13='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ13='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>87</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="9">
         <f>IF(Respostas!AM13='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM13='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM13='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM13='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="9">
         <f>IF(Respostas!AP13='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP13='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP13='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP13='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="9">
         <f>SUM(IF(D13='Q1'!$D$2,0,1),IF(E13='Q2'!$D$2,0,1),IF(F13='Q3'!$D$2,0,1),IF(G13='Q4'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="9">
         <f>SUM(IF(H13='Q5'!$D$2,0,1),IF(I13='Q6'!$D$2,0,1),IF(J13='Q7'!$D$2,0,1),IF(K13='Q8'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="9">
         <f>SUM(IF(L13='Q9'!$D$2,0,1),IF(M13='Q10'!$D$2,0,1),IF(N13='Q11'!$D$2,0,1),IF(O13='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T13" s="10" t="str">
+      <c r="T13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,58,62,68,72,76,78,83,87,91,95,6</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="str">
+      <c r="U13" s="8" t="str">
+        <f>IF(D13='Q1'!$D$2,1,0)&amp;","&amp;IF(E13='Q2'!$D$2,1,0)&amp;","&amp;IF(F13='Q3'!$D$2,1,0)&amp;","&amp;IF(G13='Q4'!$D$2,1,0)&amp;","&amp;IF(H13='Q5'!$D$2,1,0)&amp;","&amp;IF(I13='Q6'!$D$2,1,0)&amp;","&amp;IF(J13='Q7'!$D$2,1,0)&amp;","&amp;IF(K13='Q8'!$D$2,1,0)&amp;","&amp;IF(L13='Q9'!$D$2,1,0)&amp;","&amp;IF(M13='Q10'!$D$2,1,0)&amp;","&amp;IF(N13='Q11'!$D$2,1,0)&amp;","&amp;IF(O13='Q12'!$D$2,1,0)&amp;","&amp;S13</f>
+        <v>1,1,0,1,1,1,1,0,1,0,0,0,6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="str">
         <v/>
       </c>
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="8" t="str">
         <v>8.00 / 12</v>
       </c>
-      <c r="C14" s="10" t="str">
+      <c r="C14" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <f>IF(Respostas!I14='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I14='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I14='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I14='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <f>IF(Respostas!L14='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L14='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L14='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L14='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <f>IF(Respostas!O14='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O14='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O14='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O14='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9">
         <f>IF(Respostas!R14='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R14='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R14='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R14='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <f>IF(Respostas!U14='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U14='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U14='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U14='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>65</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <f>IF(Respostas!X14='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X14='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X14='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X14='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>70</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <f>IF(Respostas!AA14='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA14='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA14='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA14='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <f>IF(Respostas!AD14='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD14='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD14='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD14='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="9">
         <f>IF(Respostas!AG14='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG14='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG14='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG14='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="9">
         <f>IF(Respostas!AJ14='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ14='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ14='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ14='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="9">
         <f>IF(Respostas!AM14='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM14='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM14='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM14='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>92</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="9">
         <f>IF(Respostas!AP14='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP14='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP14='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP14='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="9">
         <f>SUM(IF(D14='Q1'!$D$2,0,1),IF(E14='Q2'!$D$2,0,1),IF(F14='Q3'!$D$2,0,1),IF(G14='Q4'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="9">
         <f>SUM(IF(H14='Q5'!$D$2,0,1),IF(I14='Q6'!$D$2,0,1),IF(J14='Q7'!$D$2,0,1),IF(K14='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="9">
         <f>SUM(IF(L14='Q9'!$D$2,0,1),IF(M14='Q10'!$D$2,0,1),IF(N14='Q11'!$D$2,0,1),IF(O14='Q12'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T14" s="10" t="str">
+      <c r="T14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,60,62,65,70,76,77,82,86,92,94,5</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="str">
+      <c r="U14" s="8" t="str">
+        <f>IF(D14='Q1'!$D$2,1,0)&amp;","&amp;IF(E14='Q2'!$D$2,1,0)&amp;","&amp;IF(F14='Q3'!$D$2,1,0)&amp;","&amp;IF(G14='Q4'!$D$2,1,0)&amp;","&amp;IF(H14='Q5'!$D$2,1,0)&amp;","&amp;IF(I14='Q6'!$D$2,1,0)&amp;","&amp;IF(J14='Q7'!$D$2,1,0)&amp;","&amp;IF(K14='Q8'!$D$2,1,0)&amp;","&amp;IF(L14='Q9'!$D$2,1,0)&amp;","&amp;IF(M14='Q10'!$D$2,1,0)&amp;","&amp;IF(N14='Q11'!$D$2,1,0)&amp;","&amp;IF(O14='Q12'!$D$2,1,0)&amp;","&amp;S14</f>
+        <v>1,1,1,1,0,0,1,1,0,1,1,1,5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="str">
         <v/>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="8" t="str">
         <v>5.00 / 12</v>
       </c>
-      <c r="C15" s="10" t="str">
+      <c r="C15" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <f>IF(Respostas!I15='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I15='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I15='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I15='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <f>IF(Respostas!L15='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L15='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L15='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L15='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <f>IF(Respostas!O15='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O15='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O15='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O15='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>58</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9">
         <f>IF(Respostas!R15='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R15='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R15='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R15='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>64</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <f>IF(Respostas!U15='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U15='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U15='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U15='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="9">
         <f>IF(Respostas!X15='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X15='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X15='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X15='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="9">
         <f>IF(Respostas!AA15='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA15='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA15='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA15='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="9">
         <f>IF(Respostas!AD15='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD15='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD15='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD15='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>78</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="9">
         <f>IF(Respostas!AG15='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG15='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG15='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG15='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="9">
         <f>IF(Respostas!AJ15='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ15='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ15='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ15='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>85</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <f>IF(Respostas!AM15='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM15='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM15='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM15='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="9">
         <f>IF(Respostas!AP15='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP15='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP15='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP15='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="9">
         <f>SUM(IF(D15='Q1'!$D$2,0,1),IF(E15='Q2'!$D$2,0,1),IF(F15='Q3'!$D$2,0,1),IF(G15='Q4'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="9">
         <f>SUM(IF(H15='Q5'!$D$2,0,1),IF(I15='Q6'!$D$2,0,1),IF(J15='Q7'!$D$2,0,1),IF(K15='Q8'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="9">
         <f>SUM(IF(L15='Q9'!$D$2,0,1),IF(M15='Q10'!$D$2,0,1),IF(N15='Q11'!$D$2,0,1),IF(O15='Q12'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T15" s="10" t="str">
+      <c r="T15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,53,58,64,68,72,76,78,82,85,91,95,6</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="str">
+      <c r="U15" s="8" t="str">
+        <f>IF(D15='Q1'!$D$2,1,0)&amp;","&amp;IF(E15='Q2'!$D$2,1,0)&amp;","&amp;IF(F15='Q3'!$D$2,1,0)&amp;","&amp;IF(G15='Q4'!$D$2,1,0)&amp;","&amp;IF(H15='Q5'!$D$2,1,0)&amp;","&amp;IF(I15='Q6'!$D$2,1,0)&amp;","&amp;IF(J15='Q7'!$D$2,1,0)&amp;","&amp;IF(K15='Q8'!$D$2,1,0)&amp;","&amp;IF(L15='Q9'!$D$2,1,0)&amp;","&amp;IF(M15='Q10'!$D$2,1,0)&amp;","&amp;IF(N15='Q11'!$D$2,1,0)&amp;","&amp;IF(O15='Q12'!$D$2,1,0)&amp;","&amp;S15</f>
+        <v>0,1,0,0,1,1,1,0,0,0,0,0,6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="str">
         <v>joao.campo@hotmail.com</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="8" t="str">
         <v>6.00 / 12</v>
       </c>
-      <c r="C16" s="10" t="str">
+      <c r="C16" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <f>IF(Respostas!I16='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I16='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I16='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I16='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <f>IF(Respostas!L16='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L16='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L16='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L16='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <f>IF(Respostas!O16='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O16='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O16='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O16='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>58</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9">
         <f>IF(Respostas!R16='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R16='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R16='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R16='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <f>IF(Respostas!U16='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U16='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U16='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U16='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <f>IF(Respostas!X16='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X16='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X16='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X16='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="9">
         <f>IF(Respostas!AA16='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA16='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA16='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA16='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>75</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="9">
         <f>IF(Respostas!AD16='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD16='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD16='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD16='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="9">
         <f>IF(Respostas!AG16='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG16='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG16='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG16='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>84</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="9">
         <f>IF(Respostas!AJ16='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ16='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ16='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ16='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="9">
         <f>IF(Respostas!AM16='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM16='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM16='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM16='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>89</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="9">
         <f>IF(Respostas!AP16='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP16='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP16='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP16='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>93</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="9">
         <f>SUM(IF(D16='Q1'!$D$2,0,1),IF(E16='Q2'!$D$2,0,1),IF(F16='Q3'!$D$2,0,1),IF(G16='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="9">
         <f>SUM(IF(H16='Q5'!$D$2,0,1),IF(I16='Q6'!$D$2,0,1),IF(J16='Q7'!$D$2,0,1),IF(K16='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="9">
         <f>SUM(IF(L16='Q9'!$D$2,0,1),IF(M16='Q10'!$D$2,0,1),IF(N16='Q11'!$D$2,0,1),IF(O16='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T16" s="10" t="str">
+      <c r="T16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,53,58,62,68,71,75,77,84,86,89,93,6</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="str">
+      <c r="U16" s="8" t="str">
+        <f>IF(D16='Q1'!$D$2,1,0)&amp;","&amp;IF(E16='Q2'!$D$2,1,0)&amp;","&amp;IF(F16='Q3'!$D$2,1,0)&amp;","&amp;IF(G16='Q4'!$D$2,1,0)&amp;","&amp;IF(H16='Q5'!$D$2,1,0)&amp;","&amp;IF(I16='Q6'!$D$2,1,0)&amp;","&amp;IF(J16='Q7'!$D$2,1,0)&amp;","&amp;IF(K16='Q8'!$D$2,1,0)&amp;","&amp;IF(L16='Q9'!$D$2,1,0)&amp;","&amp;IF(M16='Q10'!$D$2,1,0)&amp;","&amp;IF(N16='Q11'!$D$2,1,0)&amp;","&amp;IF(O16='Q12'!$D$2,1,0)&amp;","&amp;S16</f>
+        <v>0,1,0,1,1,0,0,1,0,1,0,0,6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="str">
         <v>lmoniwa@gmail.com</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="8" t="str">
         <v>8.00 / 12</v>
       </c>
-      <c r="C17" s="10" t="str">
+      <c r="C17" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <f>IF(Respostas!I17='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I17='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I17='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I17='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <f>IF(Respostas!L17='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L17='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L17='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L17='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <f>IF(Respostas!O17='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O17='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O17='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O17='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <f>IF(Respostas!R17='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R17='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R17='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R17='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>64</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <f>IF(Respostas!U17='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U17='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U17='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U17='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="9">
         <f>IF(Respostas!X17='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X17='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X17='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X17='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="9">
         <f>IF(Respostas!AA17='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA17='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA17='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA17='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="9">
         <f>IF(Respostas!AD17='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD17='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD17='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD17='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="9">
         <f>IF(Respostas!AG17='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG17='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG17='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG17='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="9">
         <f>IF(Respostas!AJ17='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ17='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ17='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ17='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="9">
         <f>IF(Respostas!AM17='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM17='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM17='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM17='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="9">
         <f>IF(Respostas!AP17='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP17='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP17='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP17='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="9">
         <f>SUM(IF(D17='Q1'!$D$2,0,1),IF(E17='Q2'!$D$2,0,1),IF(F17='Q3'!$D$2,0,1),IF(G17='Q4'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="9">
         <f>SUM(IF(H17='Q5'!$D$2,0,1),IF(I17='Q6'!$D$2,0,1),IF(J17='Q7'!$D$2,0,1),IF(K17='Q8'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="9">
         <f>SUM(IF(L17='Q9'!$D$2,0,1),IF(M17='Q10'!$D$2,0,1),IF(N17='Q11'!$D$2,0,1),IF(O17='Q12'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="S17" s="11">
+      <c r="S17" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T17" s="10" t="str">
+      <c r="T17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,60,64,68,71,76,77,83,86,90,94,4</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="str">
+      <c r="U17" s="8" t="str">
+        <f>IF(D17='Q1'!$D$2,1,0)&amp;","&amp;IF(E17='Q2'!$D$2,1,0)&amp;","&amp;IF(F17='Q3'!$D$2,1,0)&amp;","&amp;IF(G17='Q4'!$D$2,1,0)&amp;","&amp;IF(H17='Q5'!$D$2,1,0)&amp;","&amp;IF(I17='Q6'!$D$2,1,0)&amp;","&amp;IF(J17='Q7'!$D$2,1,0)&amp;","&amp;IF(K17='Q8'!$D$2,1,0)&amp;","&amp;IF(L17='Q9'!$D$2,1,0)&amp;","&amp;IF(M17='Q10'!$D$2,1,0)&amp;","&amp;IF(N17='Q11'!$D$2,1,0)&amp;","&amp;IF(O17='Q12'!$D$2,1,0)&amp;","&amp;S17</f>
+        <v>1,1,1,0,1,0,1,1,1,1,0,1,4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="str">
         <v/>
       </c>
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="8" t="str">
         <v>2.00 / 12</v>
       </c>
-      <c r="C18" s="10" t="str">
+      <c r="C18" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <f>IF(Respostas!I18='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I18='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I18='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I18='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>49</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <f>IF(Respostas!L18='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L18='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L18='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L18='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <f>IF(Respostas!O18='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O18='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O18='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O18='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="9">
         <f>IF(Respostas!R18='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R18='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R18='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R18='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>63</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <f>IF(Respostas!U18='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U18='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U18='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U18='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <f>IF(Respostas!X18='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X18='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X18='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X18='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>70</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="9">
         <f>IF(Respostas!AA18='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA18='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA18='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA18='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>75</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="9">
         <f>IF(Respostas!AD18='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD18='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD18='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD18='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="9">
         <f>IF(Respostas!AG18='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG18='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG18='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG18='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="9">
         <f>IF(Respostas!AJ18='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ18='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ18='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ18='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>87</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="9">
         <f>IF(Respostas!AM18='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM18='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM18='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM18='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>89</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="9">
         <f>IF(Respostas!AP18='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP18='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP18='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP18='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>96</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="9">
         <f>SUM(IF(D18='Q1'!$D$2,0,1),IF(E18='Q2'!$D$2,0,1),IF(F18='Q3'!$D$2,0,1),IF(G18='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="9">
         <f>SUM(IF(H18='Q5'!$D$2,0,1),IF(I18='Q6'!$D$2,0,1),IF(J18='Q7'!$D$2,0,1),IF(K18='Q8'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="9">
         <f>SUM(IF(L18='Q9'!$D$2,0,1),IF(M18='Q10'!$D$2,0,1),IF(N18='Q11'!$D$2,0,1),IF(O18='Q12'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T18" s="10" t="str">
+      <c r="T18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>49,53,60,63,68,70,75,79,82,87,89,96,6</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="str">
+      <c r="U18" s="8" t="str">
+        <f>IF(D18='Q1'!$D$2,1,0)&amp;","&amp;IF(E18='Q2'!$D$2,1,0)&amp;","&amp;IF(F18='Q3'!$D$2,1,0)&amp;","&amp;IF(G18='Q4'!$D$2,1,0)&amp;","&amp;IF(H18='Q5'!$D$2,1,0)&amp;","&amp;IF(I18='Q6'!$D$2,1,0)&amp;","&amp;IF(J18='Q7'!$D$2,1,0)&amp;","&amp;IF(K18='Q8'!$D$2,1,0)&amp;","&amp;IF(L18='Q9'!$D$2,1,0)&amp;","&amp;IF(M18='Q10'!$D$2,1,0)&amp;","&amp;IF(N18='Q11'!$D$2,1,0)&amp;","&amp;IF(O18='Q12'!$D$2,1,0)&amp;","&amp;S18</f>
+        <v>0,1,1,0,1,0,0,0,0,0,0,0,6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="str">
         <v/>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="8" t="str">
         <v>6.00 / 12</v>
       </c>
-      <c r="C19" s="10" t="str">
+      <c r="C19" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <f>IF(Respostas!I19='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I19='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I19='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I19='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <f>IF(Respostas!L19='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L19='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L19='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L19='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <f>IF(Respostas!O19='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O19='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O19='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O19='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="9">
         <f>IF(Respostas!R19='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R19='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R19='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R19='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="9">
         <f>IF(Respostas!U19='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U19='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U19='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U19='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="9">
         <f>IF(Respostas!X19='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X19='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X19='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X19='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="9">
         <f>IF(Respostas!AA19='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA19='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA19='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA19='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>75</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="9">
         <f>IF(Respostas!AD19='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD19='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD19='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD19='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>78</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="9">
         <f>IF(Respostas!AG19='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG19='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG19='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG19='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="9">
         <f>IF(Respostas!AJ19='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ19='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ19='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ19='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>85</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="9">
         <f>IF(Respostas!AM19='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM19='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM19='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM19='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>92</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="9">
         <f>IF(Respostas!AP19='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP19='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP19='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP19='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="9">
         <f>SUM(IF(D19='Q1'!$D$2,0,1),IF(E19='Q2'!$D$2,0,1),IF(F19='Q3'!$D$2,0,1),IF(G19='Q4'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="9">
         <f>SUM(IF(H19='Q5'!$D$2,0,1),IF(I19='Q6'!$D$2,0,1),IF(J19='Q7'!$D$2,0,1),IF(K19='Q8'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="9">
         <f>SUM(IF(L19='Q9'!$D$2,0,1),IF(M19='Q10'!$D$2,0,1),IF(N19='Q11'!$D$2,0,1),IF(O19='Q12'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T19" s="10" t="str">
+      <c r="T19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,60,62,68,71,75,78,83,85,92,95,5</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="str">
+      <c r="U19" s="8" t="str">
+        <f>IF(D19='Q1'!$D$2,1,0)&amp;","&amp;IF(E19='Q2'!$D$2,1,0)&amp;","&amp;IF(F19='Q3'!$D$2,1,0)&amp;","&amp;IF(G19='Q4'!$D$2,1,0)&amp;","&amp;IF(H19='Q5'!$D$2,1,0)&amp;","&amp;IF(I19='Q6'!$D$2,1,0)&amp;","&amp;IF(J19='Q7'!$D$2,1,0)&amp;","&amp;IF(K19='Q8'!$D$2,1,0)&amp;","&amp;IF(L19='Q9'!$D$2,1,0)&amp;","&amp;IF(M19='Q10'!$D$2,1,0)&amp;","&amp;IF(N19='Q11'!$D$2,1,0)&amp;","&amp;IF(O19='Q12'!$D$2,1,0)&amp;","&amp;S19</f>
+        <v>1,1,1,1,1,0,0,0,1,0,1,0,5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
         <v>gustavo_martao@hotmail.com</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="8" t="str">
         <v>4.00 / 12</v>
       </c>
-      <c r="C20" s="10" t="str">
+      <c r="C20" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <f>IF(Respostas!I20='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I20='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I20='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I20='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <f>IF(Respostas!L20='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L20='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L20='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L20='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <f>IF(Respostas!O20='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O20='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O20='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O20='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="9">
         <f>IF(Respostas!R20='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R20='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R20='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R20='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="9">
         <f>IF(Respostas!U20='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U20='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U20='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U20='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>67</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="9">
         <f>IF(Respostas!X20='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X20='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X20='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X20='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="9">
         <f>IF(Respostas!AA20='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA20='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA20='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA20='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>74</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="9">
         <f>IF(Respostas!AD20='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD20='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD20='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD20='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>78</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="9">
         <f>IF(Respostas!AG20='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG20='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG20='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG20='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>84</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="9">
         <f>IF(Respostas!AJ20='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ20='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ20='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ20='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>87</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="9">
         <f>IF(Respostas!AM20='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM20='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM20='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM20='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="9">
         <f>IF(Respostas!AP20='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP20='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP20='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP20='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="9">
         <f>SUM(IF(D20='Q1'!$D$2,0,1),IF(E20='Q2'!$D$2,0,1),IF(F20='Q3'!$D$2,0,1),IF(G20='Q4'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="9">
         <f>SUM(IF(H20='Q5'!$D$2,0,1),IF(I20='Q6'!$D$2,0,1),IF(J20='Q7'!$D$2,0,1),IF(K20='Q8'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="9">
         <f>SUM(IF(L20='Q9'!$D$2,0,1),IF(M20='Q10'!$D$2,0,1),IF(N20='Q11'!$D$2,0,1),IF(O20='Q12'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T20" s="10" t="str">
+      <c r="T20" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,60,62,67,72,74,78,84,87,91,95,6</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="str">
+      <c r="U20" s="8" t="str">
+        <f>IF(D20='Q1'!$D$2,1,0)&amp;","&amp;IF(E20='Q2'!$D$2,1,0)&amp;","&amp;IF(F20='Q3'!$D$2,1,0)&amp;","&amp;IF(G20='Q4'!$D$2,1,0)&amp;","&amp;IF(H20='Q5'!$D$2,1,0)&amp;","&amp;IF(I20='Q6'!$D$2,1,0)&amp;","&amp;IF(J20='Q7'!$D$2,1,0)&amp;","&amp;IF(K20='Q8'!$D$2,1,0)&amp;","&amp;IF(L20='Q9'!$D$2,1,0)&amp;","&amp;IF(M20='Q10'!$D$2,1,0)&amp;","&amp;IF(N20='Q11'!$D$2,1,0)&amp;","&amp;IF(O20='Q12'!$D$2,1,0)&amp;","&amp;S20</f>
+        <v>1,1,1,1,0,1,0,0,0,0,0,0,6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="str">
         <v>dani.nappi@gmail.com</v>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="8" t="str">
         <v>6.00 / 12</v>
       </c>
-      <c r="C21" s="10" t="str">
+      <c r="C21" s="8" t="str">
         <v>Pós-graduação / MBA</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <f>IF(Respostas!I21='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I21='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I21='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I21='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>50</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="9">
         <f>IF(Respostas!L21='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L21='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L21='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L21='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <f>IF(Respostas!O21='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O21='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O21='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O21='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="9">
         <f>IF(Respostas!R21='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R21='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R21='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R21='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>64</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="9">
         <f>IF(Respostas!U21='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U21='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U21='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U21='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="9">
         <f>IF(Respostas!X21='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X21='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X21='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X21='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="9">
         <f>IF(Respostas!AA21='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA21='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA21='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA21='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="9">
         <f>IF(Respostas!AD21='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD21='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD21='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD21='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="9">
         <f>IF(Respostas!AG21='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG21='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG21='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG21='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="9">
         <f>IF(Respostas!AJ21='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ21='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ21='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ21='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="9">
         <f>IF(Respostas!AM21='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM21='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM21='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM21='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="9">
         <f>IF(Respostas!AP21='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP21='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP21='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP21='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>96</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="9">
         <f>SUM(IF(D21='Q1'!$D$2,0,1),IF(E21='Q2'!$D$2,0,1),IF(F21='Q3'!$D$2,0,1),IF(G21='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="9">
         <f>SUM(IF(H21='Q5'!$D$2,0,1),IF(I21='Q6'!$D$2,0,1),IF(J21='Q7'!$D$2,0,1),IF(K21='Q8'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="9">
         <f>SUM(IF(L21='Q9'!$D$2,0,1),IF(M21='Q10'!$D$2,0,1),IF(N21='Q11'!$D$2,0,1),IF(O21='Q12'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T21" s="10" t="str">
+      <c r="T21" s="8" t="str">
         <f t="shared" si="1"/>
         <v>50,53,60,64,68,71,76,77,83,86,90,96,4</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="str">
+      <c r="U21" s="8" t="str">
+        <f>IF(D21='Q1'!$D$2,1,0)&amp;","&amp;IF(E21='Q2'!$D$2,1,0)&amp;","&amp;IF(F21='Q3'!$D$2,1,0)&amp;","&amp;IF(G21='Q4'!$D$2,1,0)&amp;","&amp;IF(H21='Q5'!$D$2,1,0)&amp;","&amp;IF(I21='Q6'!$D$2,1,0)&amp;","&amp;IF(J21='Q7'!$D$2,1,0)&amp;","&amp;IF(K21='Q8'!$D$2,1,0)&amp;","&amp;IF(L21='Q9'!$D$2,1,0)&amp;","&amp;IF(M21='Q10'!$D$2,1,0)&amp;","&amp;IF(N21='Q11'!$D$2,1,0)&amp;","&amp;IF(O21='Q12'!$D$2,1,0)&amp;","&amp;S21</f>
+        <v>0,1,1,0,1,0,1,1,1,1,0,0,4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="str">
         <v>claudia.valeria.gi@hormail.com</v>
       </c>
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="8" t="str">
         <v>9.00 / 12</v>
       </c>
-      <c r="C22" s="10" t="str">
+      <c r="C22" s="8" t="str">
         <v>Pós-graduação / MBA</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <f>IF(Respostas!I22='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I22='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I22='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I22='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
         <f>IF(Respostas!L22='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L22='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L22='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L22='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <f>IF(Respostas!O22='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O22='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O22='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O22='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="9">
         <f>IF(Respostas!R22='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R22='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R22='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R22='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="9">
         <f>IF(Respostas!U22='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U22='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U22='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U22='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="9">
         <f>IF(Respostas!X22='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X22='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X22='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X22='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="9">
         <f>IF(Respostas!AA22='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA22='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA22='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA22='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>75</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="9">
         <f>IF(Respostas!AD22='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD22='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD22='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD22='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="9">
         <f>IF(Respostas!AG22='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG22='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG22='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG22='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>81</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="9">
         <f>IF(Respostas!AJ22='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ22='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ22='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ22='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="9">
         <f>IF(Respostas!AM22='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM22='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM22='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM22='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>92</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="9">
         <f>IF(Respostas!AP22='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP22='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP22='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP22='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="9">
         <f>SUM(IF(D22='Q1'!$D$2,0,1),IF(E22='Q2'!$D$2,0,1),IF(F22='Q3'!$D$2,0,1),IF(G22='Q4'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="9">
         <f>SUM(IF(H22='Q5'!$D$2,0,1),IF(I22='Q6'!$D$2,0,1),IF(J22='Q7'!$D$2,0,1),IF(K22='Q8'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="9">
         <f>SUM(IF(L22='Q9'!$D$2,0,1),IF(M22='Q10'!$D$2,0,1),IF(N22='Q11'!$D$2,0,1),IF(O22='Q12'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T22" s="10" t="str">
+      <c r="T22" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,60,62,68,72,75,77,81,86,92,94,5</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="str">
+      <c r="U22" s="8" t="str">
+        <f>IF(D22='Q1'!$D$2,1,0)&amp;","&amp;IF(E22='Q2'!$D$2,1,0)&amp;","&amp;IF(F22='Q3'!$D$2,1,0)&amp;","&amp;IF(G22='Q4'!$D$2,1,0)&amp;","&amp;IF(H22='Q5'!$D$2,1,0)&amp;","&amp;IF(I22='Q6'!$D$2,1,0)&amp;","&amp;IF(J22='Q7'!$D$2,1,0)&amp;","&amp;IF(K22='Q8'!$D$2,1,0)&amp;","&amp;IF(L22='Q9'!$D$2,1,0)&amp;","&amp;IF(M22='Q10'!$D$2,1,0)&amp;","&amp;IF(N22='Q11'!$D$2,1,0)&amp;","&amp;IF(O22='Q12'!$D$2,1,0)&amp;","&amp;S22</f>
+        <v>1,1,1,1,1,1,0,1,0,1,1,1,5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="str">
         <v/>
       </c>
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="8" t="str">
         <v>6.00 / 12</v>
       </c>
-      <c r="C23" s="10" t="str">
+      <c r="C23" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="9">
         <f>IF(Respostas!I23='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I23='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I23='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I23='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="9">
         <f>IF(Respostas!L23='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L23='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L23='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L23='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <f>IF(Respostas!O23='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O23='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O23='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O23='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>59</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="9">
         <f>IF(Respostas!R23='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R23='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R23='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R23='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="9">
         <f>IF(Respostas!U23='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U23='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U23='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U23='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="9">
         <f>IF(Respostas!X23='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X23='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X23='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X23='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="9">
         <f>IF(Respostas!AA23='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA23='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA23='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA23='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>74</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="9">
         <f>IF(Respostas!AD23='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD23='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD23='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD23='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="9">
         <f>IF(Respostas!AG23='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG23='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG23='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG23='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="9">
         <f>IF(Respostas!AJ23='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ23='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ23='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ23='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="9">
         <f>IF(Respostas!AM23='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM23='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM23='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM23='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="9">
         <f>IF(Respostas!AP23='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP23='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP23='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP23='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="9">
         <f>SUM(IF(D23='Q1'!$D$2,0,1),IF(E23='Q2'!$D$2,0,1),IF(F23='Q3'!$D$2,0,1),IF(G23='Q4'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="9">
         <f>SUM(IF(H23='Q5'!$D$2,0,1),IF(I23='Q6'!$D$2,0,1),IF(J23='Q7'!$D$2,0,1),IF(K23='Q8'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="9">
         <f>SUM(IF(L23='Q9'!$D$2,0,1),IF(M23='Q10'!$D$2,0,1),IF(N23='Q11'!$D$2,0,1),IF(O23='Q12'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T23" s="10" t="str">
+      <c r="T23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,59,62,68,71,74,79,82,86,91,94,5</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="str">
+      <c r="U23" s="8" t="str">
+        <f>IF(D23='Q1'!$D$2,1,0)&amp;","&amp;IF(E23='Q2'!$D$2,1,0)&amp;","&amp;IF(F23='Q3'!$D$2,1,0)&amp;","&amp;IF(G23='Q4'!$D$2,1,0)&amp;","&amp;IF(H23='Q5'!$D$2,1,0)&amp;","&amp;IF(I23='Q6'!$D$2,1,0)&amp;","&amp;IF(J23='Q7'!$D$2,1,0)&amp;","&amp;IF(K23='Q8'!$D$2,1,0)&amp;","&amp;IF(L23='Q9'!$D$2,1,0)&amp;","&amp;IF(M23='Q10'!$D$2,1,0)&amp;","&amp;IF(N23='Q11'!$D$2,1,0)&amp;","&amp;IF(O23='Q12'!$D$2,1,0)&amp;","&amp;S23</f>
+        <v>1,1,0,1,1,0,0,0,0,1,0,1,5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="str">
         <v/>
       </c>
-      <c r="B24" s="10" t="str">
+      <c r="B24" s="8" t="str">
         <v>5.00 / 12</v>
       </c>
-      <c r="C24" s="10" t="str">
+      <c r="C24" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <f>IF(Respostas!I24='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I24='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I24='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I24='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <f>IF(Respostas!L24='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L24='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L24='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L24='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <f>IF(Respostas!O24='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O24='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O24='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O24='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="9">
         <f>IF(Respostas!R24='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R24='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R24='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R24='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <f>IF(Respostas!U24='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U24='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U24='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U24='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>65</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="9">
         <f>IF(Respostas!X24='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X24='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X24='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X24='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>69</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="9">
         <f>IF(Respostas!AA24='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA24='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA24='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA24='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>74</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="9">
         <f>IF(Respostas!AD24='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD24='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD24='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD24='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="9">
         <f>IF(Respostas!AG24='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG24='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG24='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG24='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="9">
         <f>IF(Respostas!AJ24='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ24='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ24='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ24='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="9">
         <f>IF(Respostas!AM24='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM24='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM24='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM24='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="9">
         <f>IF(Respostas!AP24='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP24='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP24='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP24='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="9">
         <f>SUM(IF(D24='Q1'!$D$2,0,1),IF(E24='Q2'!$D$2,0,1),IF(F24='Q3'!$D$2,0,1),IF(G24='Q4'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="9">
         <f>SUM(IF(H24='Q5'!$D$2,0,1),IF(I24='Q6'!$D$2,0,1),IF(J24='Q7'!$D$2,0,1),IF(K24='Q8'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="9">
         <f>SUM(IF(L24='Q9'!$D$2,0,1),IF(M24='Q10'!$D$2,0,1),IF(N24='Q11'!$D$2,0,1),IF(O24='Q12'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T24" s="10" t="str">
+      <c r="T24" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,53,60,62,65,69,74,77,83,86,91,95,5</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="str">
+      <c r="U24" s="8" t="str">
+        <f>IF(D24='Q1'!$D$2,1,0)&amp;","&amp;IF(E24='Q2'!$D$2,1,0)&amp;","&amp;IF(F24='Q3'!$D$2,1,0)&amp;","&amp;IF(G24='Q4'!$D$2,1,0)&amp;","&amp;IF(H24='Q5'!$D$2,1,0)&amp;","&amp;IF(I24='Q6'!$D$2,1,0)&amp;","&amp;IF(J24='Q7'!$D$2,1,0)&amp;","&amp;IF(K24='Q8'!$D$2,1,0)&amp;","&amp;IF(L24='Q9'!$D$2,1,0)&amp;","&amp;IF(M24='Q10'!$D$2,1,0)&amp;","&amp;IF(N24='Q11'!$D$2,1,0)&amp;","&amp;IF(O24='Q12'!$D$2,1,0)&amp;","&amp;S24</f>
+        <v>0,1,1,1,0,0,0,1,1,1,0,0,5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="str">
         <v/>
       </c>
-      <c r="B25" s="10" t="str">
+      <c r="B25" s="8" t="str">
         <v>3.00 / 12</v>
       </c>
-      <c r="C25" s="10" t="str">
+      <c r="C25" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <f>IF(Respostas!I25='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I25='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I25='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I25='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>49</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <f>IF(Respostas!L25='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L25='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L25='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L25='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>54</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <f>IF(Respostas!O25='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O25='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O25='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O25='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>59</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="9">
         <f>IF(Respostas!R25='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R25='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R25='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R25='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="9">
         <f>IF(Respostas!U25='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U25='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U25='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U25='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="9">
         <f>IF(Respostas!X25='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X25='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X25='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X25='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>70</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="9">
         <f>IF(Respostas!AA25='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA25='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA25='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA25='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="9">
         <f>IF(Respostas!AD25='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD25='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD25='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD25='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>78</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="9">
         <f>IF(Respostas!AG25='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG25='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG25='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG25='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="9">
         <f>IF(Respostas!AJ25='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ25='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ25='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ25='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>87</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="9">
         <f>IF(Respostas!AM25='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM25='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM25='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM25='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="9">
         <f>IF(Respostas!AP25='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP25='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP25='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP25='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>93</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="9">
         <f>SUM(IF(D25='Q1'!$D$2,0,1),IF(E25='Q2'!$D$2,0,1),IF(F25='Q3'!$D$2,0,1),IF(G25='Q4'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="9">
         <f>SUM(IF(H25='Q5'!$D$2,0,1),IF(I25='Q6'!$D$2,0,1),IF(J25='Q7'!$D$2,0,1),IF(K25='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R25" s="9">
         <f>SUM(IF(L25='Q9'!$D$2,0,1),IF(M25='Q10'!$D$2,0,1),IF(N25='Q11'!$D$2,0,1),IF(O25='Q12'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S25" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T25" s="10" t="str">
+      <c r="T25" s="8" t="str">
         <f t="shared" si="1"/>
         <v>49,54,59,62,68,70,76,78,82,87,91,93,6</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="str">
+      <c r="U25" s="8" t="str">
+        <f>IF(D25='Q1'!$D$2,1,0)&amp;","&amp;IF(E25='Q2'!$D$2,1,0)&amp;","&amp;IF(F25='Q3'!$D$2,1,0)&amp;","&amp;IF(G25='Q4'!$D$2,1,0)&amp;","&amp;IF(H25='Q5'!$D$2,1,0)&amp;","&amp;IF(I25='Q6'!$D$2,1,0)&amp;","&amp;IF(J25='Q7'!$D$2,1,0)&amp;","&amp;IF(K25='Q8'!$D$2,1,0)&amp;","&amp;IF(L25='Q9'!$D$2,1,0)&amp;","&amp;IF(M25='Q10'!$D$2,1,0)&amp;","&amp;IF(N25='Q11'!$D$2,1,0)&amp;","&amp;IF(O25='Q12'!$D$2,1,0)&amp;","&amp;S25</f>
+        <v>0,0,0,1,1,0,1,0,0,0,0,0,6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="str">
         <v/>
       </c>
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="8" t="str">
         <v>8.00 / 12</v>
       </c>
-      <c r="C26" s="10" t="str">
+      <c r="C26" s="8" t="str">
         <v>Pós-graduação / MBA</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="9">
         <f>IF(Respostas!I26='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I26='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I26='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I26='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>49</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <f>IF(Respostas!L26='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L26='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L26='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L26='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="9">
         <f>IF(Respostas!O26='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O26='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O26='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O26='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="9">
         <f>IF(Respostas!R26='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R26='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R26='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R26='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="9">
         <f>IF(Respostas!U26='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U26='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U26='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U26='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="9">
         <f>IF(Respostas!X26='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X26='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X26='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X26='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="9">
         <f>IF(Respostas!AA26='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA26='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA26='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA26='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="9">
         <f>IF(Respostas!AD26='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD26='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD26='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD26='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="9">
         <f>IF(Respostas!AG26='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG26='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG26='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG26='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="9">
         <f>IF(Respostas!AJ26='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ26='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ26='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ26='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="9">
         <f>IF(Respostas!AM26='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM26='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM26='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM26='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>89</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="9">
         <f>IF(Respostas!AP26='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP26='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP26='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP26='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="9">
         <f>SUM(IF(D26='Q1'!$D$2,0,1),IF(E26='Q2'!$D$2,0,1),IF(F26='Q3'!$D$2,0,1),IF(G26='Q4'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="9">
         <f>SUM(IF(H26='Q5'!$D$2,0,1),IF(I26='Q6'!$D$2,0,1),IF(J26='Q7'!$D$2,0,1),IF(K26='Q8'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="9">
         <f>SUM(IF(L26='Q9'!$D$2,0,1),IF(M26='Q10'!$D$2,0,1),IF(N26='Q11'!$D$2,0,1),IF(O26='Q12'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T26" s="10" t="str">
+      <c r="T26" s="8" t="str">
         <f t="shared" si="1"/>
         <v>49,53,60,62,68,72,76,77,83,86,89,95,6</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="str">
+      <c r="U26" s="8" t="str">
+        <f>IF(D26='Q1'!$D$2,1,0)&amp;","&amp;IF(E26='Q2'!$D$2,1,0)&amp;","&amp;IF(F26='Q3'!$D$2,1,0)&amp;","&amp;IF(G26='Q4'!$D$2,1,0)&amp;","&amp;IF(H26='Q5'!$D$2,1,0)&amp;","&amp;IF(I26='Q6'!$D$2,1,0)&amp;","&amp;IF(J26='Q7'!$D$2,1,0)&amp;","&amp;IF(K26='Q8'!$D$2,1,0)&amp;","&amp;IF(L26='Q9'!$D$2,1,0)&amp;","&amp;IF(M26='Q10'!$D$2,1,0)&amp;","&amp;IF(N26='Q11'!$D$2,1,0)&amp;","&amp;IF(O26='Q12'!$D$2,1,0)&amp;","&amp;S26</f>
+        <v>0,1,1,1,1,1,1,1,1,1,0,0,6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="str">
         <v>tapmorales@gmail.com</v>
       </c>
-      <c r="B27" s="10" t="str">
+      <c r="B27" s="8" t="str">
         <v>7.00 / 12</v>
       </c>
-      <c r="C27" s="10" t="str">
+      <c r="C27" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <f>IF(Respostas!I27='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I27='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I27='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I27='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="9">
         <f>IF(Respostas!L27='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L27='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L27='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L27='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="9">
         <f>IF(Respostas!O27='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O27='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O27='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O27='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="9">
         <f>IF(Respostas!R27='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R27='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R27='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R27='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>64</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="9">
         <f>IF(Respostas!U27='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U27='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U27='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U27='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="9">
         <f>IF(Respostas!X27='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X27='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X27='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X27='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>70</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="9">
         <f>IF(Respostas!AA27='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA27='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA27='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA27='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="9">
         <f>IF(Respostas!AD27='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD27='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD27='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD27='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>80</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="9">
         <f>IF(Respostas!AG27='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG27='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG27='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG27='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="9">
         <f>IF(Respostas!AJ27='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ27='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ27='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ27='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="9">
         <f>IF(Respostas!AM27='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM27='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM27='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM27='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="9">
         <f>IF(Respostas!AP27='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP27='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP27='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP27='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="9">
         <f>SUM(IF(D27='Q1'!$D$2,0,1),IF(E27='Q2'!$D$2,0,1),IF(F27='Q3'!$D$2,0,1),IF(G27='Q4'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="9">
         <f>SUM(IF(H27='Q5'!$D$2,0,1),IF(I27='Q6'!$D$2,0,1),IF(J27='Q7'!$D$2,0,1),IF(K27='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R27" s="9">
         <f>SUM(IF(L27='Q9'!$D$2,0,1),IF(M27='Q10'!$D$2,0,1),IF(N27='Q11'!$D$2,0,1),IF(O27='Q12'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S27" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T27" s="10" t="str">
+      <c r="T27" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,60,64,68,70,76,80,83,86,91,94,5</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="str">
+      <c r="U27" s="8" t="str">
+        <f>IF(D27='Q1'!$D$2,1,0)&amp;","&amp;IF(E27='Q2'!$D$2,1,0)&amp;","&amp;IF(F27='Q3'!$D$2,1,0)&amp;","&amp;IF(G27='Q4'!$D$2,1,0)&amp;","&amp;IF(H27='Q5'!$D$2,1,0)&amp;","&amp;IF(I27='Q6'!$D$2,1,0)&amp;","&amp;IF(J27='Q7'!$D$2,1,0)&amp;","&amp;IF(K27='Q8'!$D$2,1,0)&amp;","&amp;IF(L27='Q9'!$D$2,1,0)&amp;","&amp;IF(M27='Q10'!$D$2,1,0)&amp;","&amp;IF(N27='Q11'!$D$2,1,0)&amp;","&amp;IF(O27='Q12'!$D$2,1,0)&amp;","&amp;S27</f>
+        <v>1,1,1,0,1,0,1,0,1,1,0,1,5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="str">
         <v/>
       </c>
-      <c r="B28" s="10" t="str">
+      <c r="B28" s="8" t="str">
         <v>6.00 / 12</v>
       </c>
-      <c r="C28" s="10" t="str">
+      <c r="C28" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="9">
         <f>IF(Respostas!I28='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I28='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I28='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I28='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="9">
         <f>IF(Respostas!L28='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L28='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L28='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L28='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="9">
         <f>IF(Respostas!O28='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O28='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O28='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O28='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="9">
         <f>IF(Respostas!R28='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R28='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R28='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R28='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="9">
         <f>IF(Respostas!U28='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U28='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U28='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U28='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="9">
         <f>IF(Respostas!X28='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X28='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X28='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X28='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="9">
         <f>IF(Respostas!AA28='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA28='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA28='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA28='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>75</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="9">
         <f>IF(Respostas!AD28='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD28='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD28='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD28='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>78</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="9">
         <f>IF(Respostas!AG28='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG28='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG28='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG28='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="9">
         <f>IF(Respostas!AJ28='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ28='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ28='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ28='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>85</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="9">
         <f>IF(Respostas!AM28='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM28='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM28='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM28='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>92</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="9">
         <f>IF(Respostas!AP28='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP28='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP28='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP28='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="9">
         <f>SUM(IF(D28='Q1'!$D$2,0,1),IF(E28='Q2'!$D$2,0,1),IF(F28='Q3'!$D$2,0,1),IF(G28='Q4'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="9">
         <f>SUM(IF(H28='Q5'!$D$2,0,1),IF(I28='Q6'!$D$2,0,1),IF(J28='Q7'!$D$2,0,1),IF(K28='Q8'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="9">
         <f>SUM(IF(L28='Q9'!$D$2,0,1),IF(M28='Q10'!$D$2,0,1),IF(N28='Q11'!$D$2,0,1),IF(O28='Q12'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S28" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T28" s="10" t="str">
+      <c r="T28" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,60,62,68,71,75,78,83,85,92,95,5</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="str">
+      <c r="U28" s="8" t="str">
+        <f>IF(D28='Q1'!$D$2,1,0)&amp;","&amp;IF(E28='Q2'!$D$2,1,0)&amp;","&amp;IF(F28='Q3'!$D$2,1,0)&amp;","&amp;IF(G28='Q4'!$D$2,1,0)&amp;","&amp;IF(H28='Q5'!$D$2,1,0)&amp;","&amp;IF(I28='Q6'!$D$2,1,0)&amp;","&amp;IF(J28='Q7'!$D$2,1,0)&amp;","&amp;IF(K28='Q8'!$D$2,1,0)&amp;","&amp;IF(L28='Q9'!$D$2,1,0)&amp;","&amp;IF(M28='Q10'!$D$2,1,0)&amp;","&amp;IF(N28='Q11'!$D$2,1,0)&amp;","&amp;IF(O28='Q12'!$D$2,1,0)&amp;","&amp;S28</f>
+        <v>1,1,1,1,1,0,0,0,1,0,1,0,5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="str">
         <v/>
       </c>
-      <c r="B29" s="10" t="str">
+      <c r="B29" s="8" t="str">
         <v>9.00 / 12</v>
       </c>
-      <c r="C29" s="10" t="str">
+      <c r="C29" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="9">
         <f>IF(Respostas!I29='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I29='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I29='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I29='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="9">
         <f>IF(Respostas!L29='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L29='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L29='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L29='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="9">
         <f>IF(Respostas!O29='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O29='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O29='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O29='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="9">
         <f>IF(Respostas!R29='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R29='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R29='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R29='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="9">
         <f>IF(Respostas!U29='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U29='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U29='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U29='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="9">
         <f>IF(Respostas!X29='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X29='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X29='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X29='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="9">
         <f>IF(Respostas!AA29='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA29='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA29='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA29='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>73</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="9">
         <f>IF(Respostas!AD29='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD29='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD29='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD29='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="9">
         <f>IF(Respostas!AG29='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG29='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG29='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG29='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="9">
         <f>IF(Respostas!AJ29='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ29='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ29='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ29='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="9">
         <f>IF(Respostas!AM29='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM29='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM29='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM29='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>92</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="9">
         <f>IF(Respostas!AP29='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP29='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP29='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP29='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="9">
         <f>SUM(IF(D29='Q1'!$D$2,0,1),IF(E29='Q2'!$D$2,0,1),IF(F29='Q3'!$D$2,0,1),IF(G29='Q4'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="9">
         <f>SUM(IF(H29='Q5'!$D$2,0,1),IF(I29='Q6'!$D$2,0,1),IF(J29='Q7'!$D$2,0,1),IF(K29='Q8'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="9">
         <f>SUM(IF(L29='Q9'!$D$2,0,1),IF(M29='Q10'!$D$2,0,1),IF(N29='Q11'!$D$2,0,1),IF(O29='Q12'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S29" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T29" s="10" t="str">
+      <c r="T29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,60,62,68,72,73,77,83,86,92,95,5</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="str">
+      <c r="U29" s="8" t="str">
+        <f>IF(D29='Q1'!$D$2,1,0)&amp;","&amp;IF(E29='Q2'!$D$2,1,0)&amp;","&amp;IF(F29='Q3'!$D$2,1,0)&amp;","&amp;IF(G29='Q4'!$D$2,1,0)&amp;","&amp;IF(H29='Q5'!$D$2,1,0)&amp;","&amp;IF(I29='Q6'!$D$2,1,0)&amp;","&amp;IF(J29='Q7'!$D$2,1,0)&amp;","&amp;IF(K29='Q8'!$D$2,1,0)&amp;","&amp;IF(L29='Q9'!$D$2,1,0)&amp;","&amp;IF(M29='Q10'!$D$2,1,0)&amp;","&amp;IF(N29='Q11'!$D$2,1,0)&amp;","&amp;IF(O29='Q12'!$D$2,1,0)&amp;","&amp;S29</f>
+        <v>1,1,1,1,1,1,0,1,1,1,1,0,5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="str">
         <v>nelsonnjr@outlook.com</v>
       </c>
-      <c r="B30" s="10" t="str">
+      <c r="B30" s="8" t="str">
         <v>6.00 / 12</v>
       </c>
-      <c r="C30" s="10" t="str">
+      <c r="C30" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="9">
         <f>IF(Respostas!I30='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I30='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I30='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I30='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="9">
         <f>IF(Respostas!L30='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L30='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L30='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L30='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="9">
         <f>IF(Respostas!O30='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O30='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O30='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O30='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="9">
         <f>IF(Respostas!R30='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R30='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R30='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R30='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>64</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="9">
         <f>IF(Respostas!U30='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U30='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U30='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U30='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="9">
         <f>IF(Respostas!X30='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X30='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X30='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X30='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="9">
         <f>IF(Respostas!AA30='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA30='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA30='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA30='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="9">
         <f>IF(Respostas!AD30='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD30='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD30='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD30='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="9">
         <f>IF(Respostas!AG30='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG30='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG30='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG30='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>81</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="9">
         <f>IF(Respostas!AJ30='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ30='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ30='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ30='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="9">
         <f>IF(Respostas!AM30='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM30='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM30='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM30='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="9">
         <f>IF(Respostas!AP30='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP30='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP30='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP30='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="9">
         <f>SUM(IF(D30='Q1'!$D$2,0,1),IF(E30='Q2'!$D$2,0,1),IF(F30='Q3'!$D$2,0,1),IF(G30='Q4'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="9">
         <f>SUM(IF(H30='Q5'!$D$2,0,1),IF(I30='Q6'!$D$2,0,1),IF(J30='Q7'!$D$2,0,1),IF(K30='Q8'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R30" s="9">
         <f>SUM(IF(L30='Q9'!$D$2,0,1),IF(M30='Q10'!$D$2,0,1),IF(N30='Q11'!$D$2,0,1),IF(O30='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S30" s="11">
+      <c r="S30" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T30" s="10" t="str">
+      <c r="T30" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,60,64,68,72,76,79,81,86,90,95,6</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="str">
+      <c r="U30" s="8" t="str">
+        <f>IF(D30='Q1'!$D$2,1,0)&amp;","&amp;IF(E30='Q2'!$D$2,1,0)&amp;","&amp;IF(F30='Q3'!$D$2,1,0)&amp;","&amp;IF(G30='Q4'!$D$2,1,0)&amp;","&amp;IF(H30='Q5'!$D$2,1,0)&amp;","&amp;IF(I30='Q6'!$D$2,1,0)&amp;","&amp;IF(J30='Q7'!$D$2,1,0)&amp;","&amp;IF(K30='Q8'!$D$2,1,0)&amp;","&amp;IF(L30='Q9'!$D$2,1,0)&amp;","&amp;IF(M30='Q10'!$D$2,1,0)&amp;","&amp;IF(N30='Q11'!$D$2,1,0)&amp;","&amp;IF(O30='Q12'!$D$2,1,0)&amp;","&amp;S30</f>
+        <v>1,1,1,0,1,1,1,0,0,1,0,0,6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="str">
         <v>lourdes_c_camargo@hotmail.com</v>
       </c>
-      <c r="B31" s="10" t="str">
+      <c r="B31" s="8" t="str">
         <v>10.00 / 12</v>
       </c>
-      <c r="C31" s="10" t="str">
+      <c r="C31" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="9">
         <f>IF(Respostas!I31='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I31='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I31='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I31='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="9">
         <f>IF(Respostas!L31='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L31='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L31='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L31='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="9">
         <f>IF(Respostas!O31='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O31='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O31='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O31='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="9">
         <f>IF(Respostas!R31='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R31='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R31='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R31='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="9">
         <f>IF(Respostas!U31='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U31='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U31='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U31='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="9">
         <f>IF(Respostas!X31='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X31='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X31='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X31='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="9">
         <f>IF(Respostas!AA31='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA31='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA31='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA31='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="9">
         <f>IF(Respostas!AD31='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD31='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD31='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD31='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="9">
         <f>IF(Respostas!AG31='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG31='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG31='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG31='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="9">
         <f>IF(Respostas!AJ31='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ31='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ31='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ31='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="9">
         <f>IF(Respostas!AM31='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM31='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM31='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM31='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>92</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="9">
         <f>IF(Respostas!AP31='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP31='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP31='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP31='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="9">
         <f>SUM(IF(D31='Q1'!$D$2,0,1),IF(E31='Q2'!$D$2,0,1),IF(F31='Q3'!$D$2,0,1),IF(G31='Q4'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="9">
         <f>SUM(IF(H31='Q5'!$D$2,0,1),IF(I31='Q6'!$D$2,0,1),IF(J31='Q7'!$D$2,0,1),IF(K31='Q8'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R31" s="9">
         <f>SUM(IF(L31='Q9'!$D$2,0,1),IF(M31='Q10'!$D$2,0,1),IF(N31='Q11'!$D$2,0,1),IF(O31='Q12'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="S31" s="11">
+      <c r="S31" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T31" s="10" t="str">
+      <c r="T31" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,60,62,68,71,76,77,83,86,92,94,5</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="str">
+      <c r="U31" s="8" t="str">
+        <f>IF(D31='Q1'!$D$2,1,0)&amp;","&amp;IF(E31='Q2'!$D$2,1,0)&amp;","&amp;IF(F31='Q3'!$D$2,1,0)&amp;","&amp;IF(G31='Q4'!$D$2,1,0)&amp;","&amp;IF(H31='Q5'!$D$2,1,0)&amp;","&amp;IF(I31='Q6'!$D$2,1,0)&amp;","&amp;IF(J31='Q7'!$D$2,1,0)&amp;","&amp;IF(K31='Q8'!$D$2,1,0)&amp;","&amp;IF(L31='Q9'!$D$2,1,0)&amp;","&amp;IF(M31='Q10'!$D$2,1,0)&amp;","&amp;IF(N31='Q11'!$D$2,1,0)&amp;","&amp;IF(O31='Q12'!$D$2,1,0)&amp;","&amp;S31</f>
+        <v>1,1,1,1,1,0,1,1,1,1,1,1,5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="str">
         <v/>
       </c>
-      <c r="B32" s="10" t="str">
+      <c r="B32" s="8" t="str">
         <v>4.00 / 12</v>
       </c>
-      <c r="C32" s="10" t="str">
+      <c r="C32" s="8" t="str">
         <v>Pós-graduação / MBA</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="9">
         <f>IF(Respostas!I32='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I32='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I32='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I32='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="9">
         <f>IF(Respostas!L32='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L32='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L32='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L32='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="9">
         <f>IF(Respostas!O32='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O32='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O32='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O32='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>58</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="9">
         <f>IF(Respostas!R32='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R32='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R32='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R32='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="9">
         <f>IF(Respostas!U32='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U32='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U32='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U32='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>65</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="9">
         <f>IF(Respostas!X32='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X32='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X32='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X32='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>69</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="9">
         <f>IF(Respostas!AA32='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA32='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA32='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA32='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>73</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="9">
         <f>IF(Respostas!AD32='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD32='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD32='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD32='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>78</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="9">
         <f>IF(Respostas!AG32='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG32='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG32='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG32='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>81</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="9">
         <f>IF(Respostas!AJ32='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ32='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ32='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ32='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="9">
         <f>IF(Respostas!AM32='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM32='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM32='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM32='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="9">
         <f>IF(Respostas!AP32='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP32='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP32='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP32='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>93</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="9">
         <f>SUM(IF(D32='Q1'!$D$2,0,1),IF(E32='Q2'!$D$2,0,1),IF(F32='Q3'!$D$2,0,1),IF(G32='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="9">
         <f>SUM(IF(H32='Q5'!$D$2,0,1),IF(I32='Q6'!$D$2,0,1),IF(J32='Q7'!$D$2,0,1),IF(K32='Q8'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="R32" s="11">
+      <c r="R32" s="9">
         <f>SUM(IF(L32='Q9'!$D$2,0,1),IF(M32='Q10'!$D$2,0,1),IF(N32='Q11'!$D$2,0,1),IF(O32='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S32" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T32" s="10" t="str">
+      <c r="T32" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,53,58,62,65,69,73,78,81,86,90,93,5</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="str">
+      <c r="U32" s="8" t="str">
+        <f>IF(D32='Q1'!$D$2,1,0)&amp;","&amp;IF(E32='Q2'!$D$2,1,0)&amp;","&amp;IF(F32='Q3'!$D$2,1,0)&amp;","&amp;IF(G32='Q4'!$D$2,1,0)&amp;","&amp;IF(H32='Q5'!$D$2,1,0)&amp;","&amp;IF(I32='Q6'!$D$2,1,0)&amp;","&amp;IF(J32='Q7'!$D$2,1,0)&amp;","&amp;IF(K32='Q8'!$D$2,1,0)&amp;","&amp;IF(L32='Q9'!$D$2,1,0)&amp;","&amp;IF(M32='Q10'!$D$2,1,0)&amp;","&amp;IF(N32='Q11'!$D$2,1,0)&amp;","&amp;IF(O32='Q12'!$D$2,1,0)&amp;","&amp;S32</f>
+        <v>0,1,0,1,0,0,0,0,0,1,0,0,5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="str">
         <v>tiagohborges@gmail.com</v>
       </c>
-      <c r="B33" s="10" t="str">
+      <c r="B33" s="8" t="str">
         <v>4.00 / 12</v>
       </c>
-      <c r="C33" s="10" t="str">
+      <c r="C33" s="8" t="str">
         <v>Pós-graduação / MBA</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <f>IF(Respostas!I33='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I33='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I33='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I33='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>49</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="9">
         <f>IF(Respostas!L33='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L33='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L33='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L33='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="9">
         <f>IF(Respostas!O33='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O33='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O33='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O33='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="9">
         <f>IF(Respostas!R33='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R33='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R33='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R33='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>63</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="9">
         <f>IF(Respostas!U33='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U33='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U33='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U33='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>65</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="9">
         <f>IF(Respostas!X33='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X33='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X33='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X33='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>70</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="9">
         <f>IF(Respostas!AA33='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA33='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA33='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA33='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>75</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="9">
         <f>IF(Respostas!AD33='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD33='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD33='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD33='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="9">
         <f>IF(Respostas!AG33='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG33='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG33='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG33='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="9">
         <f>IF(Respostas!AJ33='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ33='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ33='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ33='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="9">
         <f>IF(Respostas!AM33='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM33='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM33='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM33='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="9">
         <f>IF(Respostas!AP33='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP33='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP33='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP33='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33" s="9">
         <f>SUM(IF(D33='Q1'!$D$2,0,1),IF(E33='Q2'!$D$2,0,1),IF(F33='Q3'!$D$2,0,1),IF(G33='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33" s="9">
         <f>SUM(IF(H33='Q5'!$D$2,0,1),IF(I33='Q6'!$D$2,0,1),IF(J33='Q7'!$D$2,0,1),IF(K33='Q8'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="9">
         <f>SUM(IF(L33='Q9'!$D$2,0,1),IF(M33='Q10'!$D$2,0,1),IF(N33='Q11'!$D$2,0,1),IF(O33='Q12'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T33" s="10" t="str">
+      <c r="T33" s="8" t="str">
         <f t="shared" si="1"/>
         <v>49,53,60,63,65,70,75,77,83,86,90,95,5</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="str">
+      <c r="U33" s="8" t="str">
+        <f>IF(D33='Q1'!$D$2,1,0)&amp;","&amp;IF(E33='Q2'!$D$2,1,0)&amp;","&amp;IF(F33='Q3'!$D$2,1,0)&amp;","&amp;IF(G33='Q4'!$D$2,1,0)&amp;","&amp;IF(H33='Q5'!$D$2,1,0)&amp;","&amp;IF(I33='Q6'!$D$2,1,0)&amp;","&amp;IF(J33='Q7'!$D$2,1,0)&amp;","&amp;IF(K33='Q8'!$D$2,1,0)&amp;","&amp;IF(L33='Q9'!$D$2,1,0)&amp;","&amp;IF(M33='Q10'!$D$2,1,0)&amp;","&amp;IF(N33='Q11'!$D$2,1,0)&amp;","&amp;IF(O33='Q12'!$D$2,1,0)&amp;","&amp;S33</f>
+        <v>0,1,1,0,0,0,0,1,1,1,0,0,5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="str">
         <v>pablofurlan@gmail.com</v>
       </c>
-      <c r="B34" s="10" t="str">
+      <c r="B34" s="8" t="str">
         <v>8.00 / 12</v>
       </c>
-      <c r="C34" s="10" t="str">
+      <c r="C34" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="9">
         <f>IF(Respostas!I34='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I34='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I34='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I34='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>50</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="9">
         <f>IF(Respostas!L34='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L34='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L34='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L34='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="9">
         <f>IF(Respostas!O34='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O34='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O34='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O34='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="9">
         <f>IF(Respostas!R34='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R34='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R34='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R34='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="9">
         <f>IF(Respostas!U34='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U34='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U34='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U34='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="9">
         <f>IF(Respostas!X34='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X34='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X34='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X34='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="9">
         <f>IF(Respostas!AA34='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA34='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA34='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA34='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="9">
         <f>IF(Respostas!AD34='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD34='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD34='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD34='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="9">
         <f>IF(Respostas!AG34='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG34='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG34='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG34='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="9">
         <f>IF(Respostas!AJ34='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ34='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ34='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ34='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="9">
         <f>IF(Respostas!AM34='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM34='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM34='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM34='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="9">
         <f>IF(Respostas!AP34='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP34='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP34='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP34='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="9">
         <f>SUM(IF(D34='Q1'!$D$2,0,1),IF(E34='Q2'!$D$2,0,1),IF(F34='Q3'!$D$2,0,1),IF(G34='Q4'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="9">
         <f>SUM(IF(H34='Q5'!$D$2,0,1),IF(I34='Q6'!$D$2,0,1),IF(J34='Q7'!$D$2,0,1),IF(K34='Q8'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="9">
         <f>SUM(IF(L34='Q9'!$D$2,0,1),IF(M34='Q10'!$D$2,0,1),IF(N34='Q11'!$D$2,0,1),IF(O34='Q12'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T34" s="10" t="str">
+      <c r="T34" s="8" t="str">
         <f t="shared" si="1"/>
         <v>50,53,60,62,68,72,76,79,83,86,90,94,4</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="str">
+      <c r="U34" s="8" t="str">
+        <f>IF(D34='Q1'!$D$2,1,0)&amp;","&amp;IF(E34='Q2'!$D$2,1,0)&amp;","&amp;IF(F34='Q3'!$D$2,1,0)&amp;","&amp;IF(G34='Q4'!$D$2,1,0)&amp;","&amp;IF(H34='Q5'!$D$2,1,0)&amp;","&amp;IF(I34='Q6'!$D$2,1,0)&amp;","&amp;IF(J34='Q7'!$D$2,1,0)&amp;","&amp;IF(K34='Q8'!$D$2,1,0)&amp;","&amp;IF(L34='Q9'!$D$2,1,0)&amp;","&amp;IF(M34='Q10'!$D$2,1,0)&amp;","&amp;IF(N34='Q11'!$D$2,1,0)&amp;","&amp;IF(O34='Q12'!$D$2,1,0)&amp;","&amp;S34</f>
+        <v>0,1,1,1,1,1,1,0,1,1,0,1,4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="str">
         <v>carloseduardo@maisexcel.com</v>
       </c>
-      <c r="B35" s="10" t="str">
+      <c r="B35" s="8" t="str">
         <v>4.00 / 12</v>
       </c>
-      <c r="C35" s="10" t="str">
+      <c r="C35" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="9">
         <f>IF(Respostas!I35='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I35='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I35='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I35='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="9">
         <f>IF(Respostas!L35='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L35='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L35='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L35='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="9">
         <f>IF(Respostas!O35='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O35='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O35='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O35='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="9">
         <f>IF(Respostas!R35='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R35='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R35='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R35='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="9">
         <f>IF(Respostas!U35='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U35='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U35='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U35='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>67</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="9">
         <f>IF(Respostas!X35='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X35='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X35='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X35='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>69</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="9">
         <f>IF(Respostas!AA35='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA35='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA35='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA35='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>74</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="9">
         <f>IF(Respostas!AD35='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD35='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD35='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD35='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="9">
         <f>IF(Respostas!AG35='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG35='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG35='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG35='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="9">
         <f>IF(Respostas!AJ35='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ35='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ35='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ35='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>87</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="9">
         <f>IF(Respostas!AM35='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM35='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM35='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM35='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="9">
         <f>IF(Respostas!AP35='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP35='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP35='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP35='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>93</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="9">
         <f>SUM(IF(D35='Q1'!$D$2,0,1),IF(E35='Q2'!$D$2,0,1),IF(F35='Q3'!$D$2,0,1),IF(G35='Q4'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="9">
         <f>SUM(IF(H35='Q5'!$D$2,0,1),IF(I35='Q6'!$D$2,0,1),IF(J35='Q7'!$D$2,0,1),IF(K35='Q8'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="R35" s="11">
+      <c r="R35" s="9">
         <f>SUM(IF(L35='Q9'!$D$2,0,1),IF(M35='Q10'!$D$2,0,1),IF(N35='Q11'!$D$2,0,1),IF(O35='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S35" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T35" s="10" t="str">
+      <c r="T35" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,53,60,62,67,69,74,77,83,87,91,93,5</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="str">
+      <c r="U35" s="8" t="str">
+        <f>IF(D35='Q1'!$D$2,1,0)&amp;","&amp;IF(E35='Q2'!$D$2,1,0)&amp;","&amp;IF(F35='Q3'!$D$2,1,0)&amp;","&amp;IF(G35='Q4'!$D$2,1,0)&amp;","&amp;IF(H35='Q5'!$D$2,1,0)&amp;","&amp;IF(I35='Q6'!$D$2,1,0)&amp;","&amp;IF(J35='Q7'!$D$2,1,0)&amp;","&amp;IF(K35='Q8'!$D$2,1,0)&amp;","&amp;IF(L35='Q9'!$D$2,1,0)&amp;","&amp;IF(M35='Q10'!$D$2,1,0)&amp;","&amp;IF(N35='Q11'!$D$2,1,0)&amp;","&amp;IF(O35='Q12'!$D$2,1,0)&amp;","&amp;S35</f>
+        <v>0,1,1,1,0,0,0,1,1,0,0,0,5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="str">
         <v>salthilega@bol.com.br</v>
       </c>
-      <c r="B36" s="10" t="str">
+      <c r="B36" s="8" t="str">
         <v>5.00 / 12</v>
       </c>
-      <c r="C36" s="10" t="str">
+      <c r="C36" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="9">
         <f>IF(Respostas!I36='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I36='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I36='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I36='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="9">
         <f>IF(Respostas!L36='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L36='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L36='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L36='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="9">
         <f>IF(Respostas!O36='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O36='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O36='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O36='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="9">
         <f>IF(Respostas!R36='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R36='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R36='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R36='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="9">
         <f>IF(Respostas!U36='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U36='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U36='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U36='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="9">
         <f>IF(Respostas!X36='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X36='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X36='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X36='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="9">
         <f>IF(Respostas!AA36='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA36='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA36='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA36='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>74</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="9">
         <f>IF(Respostas!AD36='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD36='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD36='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD36='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="9">
         <f>IF(Respostas!AG36='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG36='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG36='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG36='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>84</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M36" s="9">
         <f>IF(Respostas!AJ36='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ36='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ36='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ36='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>88</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="9">
         <f>IF(Respostas!AM36='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM36='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM36='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM36='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="9">
         <f>IF(Respostas!AP36='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP36='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP36='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP36='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P36" s="9">
         <f>SUM(IF(D36='Q1'!$D$2,0,1),IF(E36='Q2'!$D$2,0,1),IF(F36='Q3'!$D$2,0,1),IF(G36='Q4'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q36" s="9">
         <f>SUM(IF(H36='Q5'!$D$2,0,1),IF(I36='Q6'!$D$2,0,1),IF(J36='Q7'!$D$2,0,1),IF(K36='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R36" s="11">
+      <c r="R36" s="9">
         <f>SUM(IF(L36='Q9'!$D$2,0,1),IF(M36='Q10'!$D$2,0,1),IF(N36='Q11'!$D$2,0,1),IF(O36='Q12'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="S36" s="11">
+      <c r="S36" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T36" s="10" t="str">
+      <c r="T36" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,60,62,68,72,74,79,84,88,91,95,6</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="str">
+      <c r="U36" s="8" t="str">
+        <f>IF(D36='Q1'!$D$2,1,0)&amp;","&amp;IF(E36='Q2'!$D$2,1,0)&amp;","&amp;IF(F36='Q3'!$D$2,1,0)&amp;","&amp;IF(G36='Q4'!$D$2,1,0)&amp;","&amp;IF(H36='Q5'!$D$2,1,0)&amp;","&amp;IF(I36='Q6'!$D$2,1,0)&amp;","&amp;IF(J36='Q7'!$D$2,1,0)&amp;","&amp;IF(K36='Q8'!$D$2,1,0)&amp;","&amp;IF(L36='Q9'!$D$2,1,0)&amp;","&amp;IF(M36='Q10'!$D$2,1,0)&amp;","&amp;IF(N36='Q11'!$D$2,1,0)&amp;","&amp;IF(O36='Q12'!$D$2,1,0)&amp;","&amp;S36</f>
+        <v>1,1,1,1,1,1,0,0,0,0,0,0,6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="str">
         <v/>
       </c>
-      <c r="B37" s="10" t="str">
+      <c r="B37" s="8" t="str">
         <v>6.00 / 12</v>
       </c>
-      <c r="C37" s="10" t="str">
+      <c r="C37" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="9">
         <f>IF(Respostas!I37='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I37='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I37='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I37='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>50</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="9">
         <f>IF(Respostas!L37='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L37='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L37='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L37='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="9">
         <f>IF(Respostas!O37='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O37='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O37='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O37='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="9">
         <f>IF(Respostas!R37='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R37='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R37='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R37='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="9">
         <f>IF(Respostas!U37='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U37='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U37='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U37='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="9">
         <f>IF(Respostas!X37='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X37='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X37='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X37='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="9">
         <f>IF(Respostas!AA37='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA37='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA37='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA37='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="9">
         <f>IF(Respostas!AD37='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD37='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD37='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD37='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="9">
         <f>IF(Respostas!AG37='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG37='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG37='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG37='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>84</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="9">
         <f>IF(Respostas!AJ37='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ37='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ37='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ37='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>88</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="9">
         <f>IF(Respostas!AM37='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM37='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM37='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM37='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="9">
         <f>IF(Respostas!AP37='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP37='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP37='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP37='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P37" s="9">
         <f>SUM(IF(D37='Q1'!$D$2,0,1),IF(E37='Q2'!$D$2,0,1),IF(F37='Q3'!$D$2,0,1),IF(G37='Q4'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q37" s="9">
         <f>SUM(IF(H37='Q5'!$D$2,0,1),IF(I37='Q6'!$D$2,0,1),IF(J37='Q7'!$D$2,0,1),IF(K37='Q8'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R37" s="9">
         <f>SUM(IF(L37='Q9'!$D$2,0,1),IF(M37='Q10'!$D$2,0,1),IF(N37='Q11'!$D$2,0,1),IF(O37='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S37" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T37" s="10" t="str">
+      <c r="T37" s="8" t="str">
         <f t="shared" si="1"/>
         <v>50,53,60,62,68,72,76,79,84,88,90,94,6</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="str">
+      <c r="U37" s="8" t="str">
+        <f>IF(D37='Q1'!$D$2,1,0)&amp;","&amp;IF(E37='Q2'!$D$2,1,0)&amp;","&amp;IF(F37='Q3'!$D$2,1,0)&amp;","&amp;IF(G37='Q4'!$D$2,1,0)&amp;","&amp;IF(H37='Q5'!$D$2,1,0)&amp;","&amp;IF(I37='Q6'!$D$2,1,0)&amp;","&amp;IF(J37='Q7'!$D$2,1,0)&amp;","&amp;IF(K37='Q8'!$D$2,1,0)&amp;","&amp;IF(L37='Q9'!$D$2,1,0)&amp;","&amp;IF(M37='Q10'!$D$2,1,0)&amp;","&amp;IF(N37='Q11'!$D$2,1,0)&amp;","&amp;IF(O37='Q12'!$D$2,1,0)&amp;","&amp;S37</f>
+        <v>0,1,1,1,1,1,1,0,0,0,0,1,6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="str">
         <v/>
       </c>
-      <c r="B38" s="10" t="str">
+      <c r="B38" s="8" t="str">
         <v>3.00 / 12</v>
       </c>
-      <c r="C38" s="10" t="str">
+      <c r="C38" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="9">
         <f>IF(Respostas!I38='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I38='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I38='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I38='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="9">
         <f>IF(Respostas!L38='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L38='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L38='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L38='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>56</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="9">
         <f>IF(Respostas!O38='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O38='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O38='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O38='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="9">
         <f>IF(Respostas!R38='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R38='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R38='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R38='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>64</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="9">
         <f>IF(Respostas!U38='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U38='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U38='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U38='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="9">
         <f>IF(Respostas!X38='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X38='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X38='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X38='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>69</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="9">
         <f>IF(Respostas!AA38='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA38='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA38='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA38='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>74</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="9">
         <f>IF(Respostas!AD38='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD38='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD38='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD38='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>78</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="9">
         <f>IF(Respostas!AG38='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG38='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG38='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG38='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="9">
         <f>IF(Respostas!AJ38='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ38='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ38='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ38='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>87</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="9">
         <f>IF(Respostas!AM38='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM38='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM38='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM38='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>92</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="9">
         <f>IF(Respostas!AP38='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP38='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP38='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP38='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P38" s="9">
         <f>SUM(IF(D38='Q1'!$D$2,0,1),IF(E38='Q2'!$D$2,0,1),IF(F38='Q3'!$D$2,0,1),IF(G38='Q4'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="Q38" s="11">
+      <c r="Q38" s="9">
         <f>SUM(IF(H38='Q5'!$D$2,0,1),IF(I38='Q6'!$D$2,0,1),IF(J38='Q7'!$D$2,0,1),IF(K38='Q8'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="R38" s="11">
+      <c r="R38" s="9">
         <f>SUM(IF(L38='Q9'!$D$2,0,1),IF(M38='Q10'!$D$2,0,1),IF(N38='Q11'!$D$2,0,1),IF(O38='Q12'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="S38" s="11">
+      <c r="S38" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T38" s="10" t="str">
+      <c r="T38" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,56,60,64,68,69,74,78,82,87,92,94,4</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="str">
+      <c r="U38" s="8" t="str">
+        <f>IF(D38='Q1'!$D$2,1,0)&amp;","&amp;IF(E38='Q2'!$D$2,1,0)&amp;","&amp;IF(F38='Q3'!$D$2,1,0)&amp;","&amp;IF(G38='Q4'!$D$2,1,0)&amp;","&amp;IF(H38='Q5'!$D$2,1,0)&amp;","&amp;IF(I38='Q6'!$D$2,1,0)&amp;","&amp;IF(J38='Q7'!$D$2,1,0)&amp;","&amp;IF(K38='Q8'!$D$2,1,0)&amp;","&amp;IF(L38='Q9'!$D$2,1,0)&amp;","&amp;IF(M38='Q10'!$D$2,1,0)&amp;","&amp;IF(N38='Q11'!$D$2,1,0)&amp;","&amp;IF(O38='Q12'!$D$2,1,0)&amp;","&amp;S38</f>
+        <v>0,0,1,0,1,0,0,0,0,0,1,1,4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="str">
         <v/>
       </c>
-      <c r="B39" s="10" t="str">
+      <c r="B39" s="8" t="str">
         <v>5.00 / 12</v>
       </c>
-      <c r="C39" s="10" t="str">
+      <c r="C39" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="9">
         <f>IF(Respostas!I39='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I39='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I39='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I39='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="9">
         <f>IF(Respostas!L39='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L39='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L39='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L39='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="9">
         <f>IF(Respostas!O39='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O39='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O39='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O39='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>59</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="9">
         <f>IF(Respostas!R39='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R39='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R39='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R39='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>61</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="9">
         <f>IF(Respostas!U39='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U39='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U39='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U39='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>67</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="9">
         <f>IF(Respostas!X39='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X39='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X39='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X39='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>69</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="9">
         <f>IF(Respostas!AA39='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA39='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA39='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA39='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="9">
         <f>IF(Respostas!AD39='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD39='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD39='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD39='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="9">
         <f>IF(Respostas!AG39='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG39='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG39='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG39='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>84</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="9">
         <f>IF(Respostas!AJ39='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ39='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ39='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ39='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="9">
         <f>IF(Respostas!AM39='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM39='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM39='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM39='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O39" s="9">
         <f>IF(Respostas!AP39='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP39='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP39='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP39='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="9">
         <f>SUM(IF(D39='Q1'!$D$2,0,1),IF(E39='Q2'!$D$2,0,1),IF(F39='Q3'!$D$2,0,1),IF(G39='Q4'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q39" s="9">
         <f>SUM(IF(H39='Q5'!$D$2,0,1),IF(I39='Q6'!$D$2,0,1),IF(J39='Q7'!$D$2,0,1),IF(K39='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R39" s="11">
+      <c r="R39" s="9">
         <f>SUM(IF(L39='Q9'!$D$2,0,1),IF(M39='Q10'!$D$2,0,1),IF(N39='Q11'!$D$2,0,1),IF(O39='Q12'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="S39" s="11">
+      <c r="S39" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T39" s="10" t="str">
+      <c r="T39" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,53,59,61,67,69,76,77,84,86,90,94,4</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="str">
+      <c r="U39" s="8" t="str">
+        <f>IF(D39='Q1'!$D$2,1,0)&amp;","&amp;IF(E39='Q2'!$D$2,1,0)&amp;","&amp;IF(F39='Q3'!$D$2,1,0)&amp;","&amp;IF(G39='Q4'!$D$2,1,0)&amp;","&amp;IF(H39='Q5'!$D$2,1,0)&amp;","&amp;IF(I39='Q6'!$D$2,1,0)&amp;","&amp;IF(J39='Q7'!$D$2,1,0)&amp;","&amp;IF(K39='Q8'!$D$2,1,0)&amp;","&amp;IF(L39='Q9'!$D$2,1,0)&amp;","&amp;IF(M39='Q10'!$D$2,1,0)&amp;","&amp;IF(N39='Q11'!$D$2,1,0)&amp;","&amp;IF(O39='Q12'!$D$2,1,0)&amp;","&amp;S39</f>
+        <v>0,1,0,0,0,0,1,1,0,1,0,1,4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="str">
         <v>wilsamara89@hotmail.com</v>
       </c>
-      <c r="B40" s="10" t="str">
+      <c r="B40" s="8" t="str">
         <v>6.00 / 12</v>
       </c>
-      <c r="C40" s="10" t="str">
+      <c r="C40" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="9">
         <f>IF(Respostas!I40='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I40='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I40='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I40='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="9">
         <f>IF(Respostas!L40='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L40='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L40='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L40='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="9">
         <f>IF(Respostas!O40='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O40='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O40='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O40='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>58</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="9">
         <f>IF(Respostas!R40='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R40='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R40='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R40='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="9">
         <f>IF(Respostas!U40='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U40='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U40='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U40='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="9">
         <f>IF(Respostas!X40='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X40='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X40='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X40='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="9">
         <f>IF(Respostas!AA40='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA40='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA40='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA40='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="9">
         <f>IF(Respostas!AD40='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD40='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD40='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD40='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="9">
         <f>IF(Respostas!AG40='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG40='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG40='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG40='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="9">
         <f>IF(Respostas!AJ40='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ40='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ40='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ40='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N40" s="9">
         <f>IF(Respostas!AM40='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM40='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM40='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM40='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O40" s="9">
         <f>IF(Respostas!AP40='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP40='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP40='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP40='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>93</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P40" s="9">
         <f>SUM(IF(D40='Q1'!$D$2,0,1),IF(E40='Q2'!$D$2,0,1),IF(F40='Q3'!$D$2,0,1),IF(G40='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="Q40" s="9">
         <f>SUM(IF(H40='Q5'!$D$2,0,1),IF(I40='Q6'!$D$2,0,1),IF(J40='Q7'!$D$2,0,1),IF(K40='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R40" s="11">
+      <c r="R40" s="9">
         <f>SUM(IF(L40='Q9'!$D$2,0,1),IF(M40='Q10'!$D$2,0,1),IF(N40='Q11'!$D$2,0,1),IF(O40='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S40" s="11">
+      <c r="S40" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T40" s="10" t="str">
+      <c r="T40" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,53,58,62,68,71,76,79,82,86,90,93,6</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="str">
+      <c r="U40" s="8" t="str">
+        <f>IF(D40='Q1'!$D$2,1,0)&amp;","&amp;IF(E40='Q2'!$D$2,1,0)&amp;","&amp;IF(F40='Q3'!$D$2,1,0)&amp;","&amp;IF(G40='Q4'!$D$2,1,0)&amp;","&amp;IF(H40='Q5'!$D$2,1,0)&amp;","&amp;IF(I40='Q6'!$D$2,1,0)&amp;","&amp;IF(J40='Q7'!$D$2,1,0)&amp;","&amp;IF(K40='Q8'!$D$2,1,0)&amp;","&amp;IF(L40='Q9'!$D$2,1,0)&amp;","&amp;IF(M40='Q10'!$D$2,1,0)&amp;","&amp;IF(N40='Q11'!$D$2,1,0)&amp;","&amp;IF(O40='Q12'!$D$2,1,0)&amp;","&amp;S40</f>
+        <v>0,1,0,1,1,0,1,0,0,1,0,0,6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="str">
         <v/>
       </c>
-      <c r="B41" s="10" t="str">
+      <c r="B41" s="8" t="str">
         <v>3.00 / 12</v>
       </c>
-      <c r="C41" s="10" t="str">
+      <c r="C41" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <f>IF(Respostas!I41='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I41='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I41='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I41='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>50</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="9">
         <f>IF(Respostas!L41='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L41='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L41='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L41='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>55</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="9">
         <f>IF(Respostas!O41='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O41='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O41='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O41='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>60</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="9">
         <f>IF(Respostas!R41='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R41='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R41='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R41='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>63</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="9">
         <f>IF(Respostas!U41='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U41='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U41='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U41='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="9">
         <f>IF(Respostas!X41='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X41='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X41='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X41='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>70</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="9">
         <f>IF(Respostas!AA41='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA41='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA41='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA41='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>73</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="9">
         <f>IF(Respostas!AD41='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD41='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD41='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD41='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="9">
         <f>IF(Respostas!AG41='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG41='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG41='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG41='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M41" s="9">
         <f>IF(Respostas!AJ41='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ41='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ41='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ41='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N41" s="9">
         <f>IF(Respostas!AM41='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM41='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM41='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM41='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O41" s="9">
         <f>IF(Respostas!AP41='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP41='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP41='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP41='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P41" s="9">
         <f>SUM(IF(D41='Q1'!$D$2,0,1),IF(E41='Q2'!$D$2,0,1),IF(F41='Q3'!$D$2,0,1),IF(G41='Q4'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="Q41" s="9">
         <f>SUM(IF(H41='Q5'!$D$2,0,1),IF(I41='Q6'!$D$2,0,1),IF(J41='Q7'!$D$2,0,1),IF(K41='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R41" s="11">
+      <c r="R41" s="9">
         <f>SUM(IF(L41='Q9'!$D$2,0,1),IF(M41='Q10'!$D$2,0,1),IF(N41='Q11'!$D$2,0,1),IF(O41='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S41" s="11">
+      <c r="S41" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T41" s="10" t="str">
+      <c r="T41" s="8" t="str">
         <f t="shared" si="1"/>
         <v>50,55,60,63,68,70,73,77,82,86,90,95,4</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="str">
+      <c r="U41" s="8" t="str">
+        <f>IF(D41='Q1'!$D$2,1,0)&amp;","&amp;IF(E41='Q2'!$D$2,1,0)&amp;","&amp;IF(F41='Q3'!$D$2,1,0)&amp;","&amp;IF(G41='Q4'!$D$2,1,0)&amp;","&amp;IF(H41='Q5'!$D$2,1,0)&amp;","&amp;IF(I41='Q6'!$D$2,1,0)&amp;","&amp;IF(J41='Q7'!$D$2,1,0)&amp;","&amp;IF(K41='Q8'!$D$2,1,0)&amp;","&amp;IF(L41='Q9'!$D$2,1,0)&amp;","&amp;IF(M41='Q10'!$D$2,1,0)&amp;","&amp;IF(N41='Q11'!$D$2,1,0)&amp;","&amp;IF(O41='Q12'!$D$2,1,0)&amp;","&amp;S41</f>
+        <v>0,0,1,0,1,0,0,1,0,1,0,0,4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="str">
         <v/>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B42" s="8" t="str">
         <v>3.00 / 12</v>
       </c>
-      <c r="C42" s="10" t="str">
+      <c r="C42" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <f>IF(Respostas!I42='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I42='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I42='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I42='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="9">
         <f>IF(Respostas!L42='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L42='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L42='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L42='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>54</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="9">
         <f>IF(Respostas!O42='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O42='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O42='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O42='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>58</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="9">
         <f>IF(Respostas!R42='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R42='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R42='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R42='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="9">
         <f>IF(Respostas!U42='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U42='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U42='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U42='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="9">
         <f>IF(Respostas!X42='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X42='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X42='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X42='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="9">
         <f>IF(Respostas!AA42='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA42='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA42='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA42='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>75</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="9">
         <f>IF(Respostas!AD42='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD42='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD42='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD42='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="9">
         <f>IF(Respostas!AG42='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG42='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG42='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG42='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>84</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="9">
         <f>IF(Respostas!AJ42='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ42='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ42='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ42='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>87</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="9">
         <f>IF(Respostas!AM42='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM42='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM42='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM42='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>89</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O42" s="9">
         <f>IF(Respostas!AP42='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP42='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP42='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP42='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>96</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42" s="9">
         <f>SUM(IF(D42='Q1'!$D$2,0,1),IF(E42='Q2'!$D$2,0,1),IF(F42='Q3'!$D$2,0,1),IF(G42='Q4'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q42" s="9">
         <f>SUM(IF(H42='Q5'!$D$2,0,1),IF(I42='Q6'!$D$2,0,1),IF(J42='Q7'!$D$2,0,1),IF(K42='Q8'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="R42" s="11">
+      <c r="R42" s="9">
         <f>SUM(IF(L42='Q9'!$D$2,0,1),IF(M42='Q10'!$D$2,0,1),IF(N42='Q11'!$D$2,0,1),IF(O42='Q12'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="S42" s="11">
+      <c r="S42" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T42" s="10" t="str">
+      <c r="T42" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,54,58,62,68,71,75,79,84,87,89,96,6</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="str">
+      <c r="U42" s="8" t="str">
+        <f>IF(D42='Q1'!$D$2,1,0)&amp;","&amp;IF(E42='Q2'!$D$2,1,0)&amp;","&amp;IF(F42='Q3'!$D$2,1,0)&amp;","&amp;IF(G42='Q4'!$D$2,1,0)&amp;","&amp;IF(H42='Q5'!$D$2,1,0)&amp;","&amp;IF(I42='Q6'!$D$2,1,0)&amp;","&amp;IF(J42='Q7'!$D$2,1,0)&amp;","&amp;IF(K42='Q8'!$D$2,1,0)&amp;","&amp;IF(L42='Q9'!$D$2,1,0)&amp;","&amp;IF(M42='Q10'!$D$2,1,0)&amp;","&amp;IF(N42='Q11'!$D$2,1,0)&amp;","&amp;IF(O42='Q12'!$D$2,1,0)&amp;","&amp;S42</f>
+        <v>0,0,0,1,1,0,0,0,0,0,0,0,6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="str">
         <v/>
       </c>
-      <c r="B43" s="10" t="str">
+      <c r="B43" s="8" t="str">
         <v>2.00 / 12</v>
       </c>
-      <c r="C43" s="10" t="str">
+      <c r="C43" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="9">
         <f>IF(Respostas!I43='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I43='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I43='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I43='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="9">
         <f>IF(Respostas!L43='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L43='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L43='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L43='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>54</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="9">
         <f>IF(Respostas!O43='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O43='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O43='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O43='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>59</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="9">
         <f>IF(Respostas!R43='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R43='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R43='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R43='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>64</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="9">
         <f>IF(Respostas!U43='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U43='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U43='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U43='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>67</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="9">
         <f>IF(Respostas!X43='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X43='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X43='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X43='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>69</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="9">
         <f>IF(Respostas!AA43='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA43='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA43='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA43='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>73</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="9">
         <f>IF(Respostas!AD43='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD43='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD43='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD43='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="9">
         <f>IF(Respostas!AG43='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG43='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG43='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG43='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M43" s="9">
         <f>IF(Respostas!AJ43='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ43='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ43='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ43='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>87</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N43" s="9">
         <f>IF(Respostas!AM43='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM43='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM43='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM43='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>89</v>
       </c>
-      <c r="O43" s="11">
+      <c r="O43" s="9">
         <f>IF(Respostas!AP43='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP43='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP43='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP43='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P43" s="11">
+      <c r="P43" s="9">
         <f>SUM(IF(D43='Q1'!$D$2,0,1),IF(E43='Q2'!$D$2,0,1),IF(F43='Q3'!$D$2,0,1),IF(G43='Q4'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="Q43" s="11">
+      <c r="Q43" s="9">
         <f>SUM(IF(H43='Q5'!$D$2,0,1),IF(I43='Q6'!$D$2,0,1),IF(J43='Q7'!$D$2,0,1),IF(K43='Q8'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="R43" s="11">
+      <c r="R43" s="9">
         <f>SUM(IF(L43='Q9'!$D$2,0,1),IF(M43='Q10'!$D$2,0,1),IF(N43='Q11'!$D$2,0,1),IF(O43='Q12'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="S43" s="11">
+      <c r="S43" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T43" s="10" t="str">
+      <c r="T43" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,54,59,64,67,69,73,77,82,87,89,95,6</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="str">
+      <c r="U43" s="8" t="str">
+        <f>IF(D43='Q1'!$D$2,1,0)&amp;","&amp;IF(E43='Q2'!$D$2,1,0)&amp;","&amp;IF(F43='Q3'!$D$2,1,0)&amp;","&amp;IF(G43='Q4'!$D$2,1,0)&amp;","&amp;IF(H43='Q5'!$D$2,1,0)&amp;","&amp;IF(I43='Q6'!$D$2,1,0)&amp;","&amp;IF(J43='Q7'!$D$2,1,0)&amp;","&amp;IF(K43='Q8'!$D$2,1,0)&amp;","&amp;IF(L43='Q9'!$D$2,1,0)&amp;","&amp;IF(M43='Q10'!$D$2,1,0)&amp;","&amp;IF(N43='Q11'!$D$2,1,0)&amp;","&amp;IF(O43='Q12'!$D$2,1,0)&amp;","&amp;S43</f>
+        <v>1,0,0,0,0,0,0,1,0,0,0,0,6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="str">
         <v/>
       </c>
-      <c r="B44" s="10" t="str">
+      <c r="B44" s="8" t="str">
         <v>7.00 / 12</v>
       </c>
-      <c r="C44" s="10" t="str">
+      <c r="C44" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="9">
         <f>IF(Respostas!I44='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I44='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I44='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I44='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="9">
         <f>IF(Respostas!L44='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L44='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L44='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L44='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="9">
         <f>IF(Respostas!O44='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O44='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O44='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O44='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>58</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="9">
         <f>IF(Respostas!R44='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R44='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R44='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R44='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>63</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="9">
         <f>IF(Respostas!U44='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U44='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U44='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U44='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="9">
         <f>IF(Respostas!X44='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X44='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X44='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X44='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="9">
         <f>IF(Respostas!AA44='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA44='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA44='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA44='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="9">
         <f>IF(Respostas!AD44='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD44='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD44='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD44='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="9">
         <f>IF(Respostas!AG44='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG44='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG44='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG44='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M44" s="9">
         <f>IF(Respostas!AJ44='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ44='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ44='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ44='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>85</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N44" s="9">
         <f>IF(Respostas!AM44='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM44='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM44='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM44='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O44" s="9">
         <f>IF(Respostas!AP44='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP44='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP44='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP44='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P44" s="11">
+      <c r="P44" s="9">
         <f>SUM(IF(D44='Q1'!$D$2,0,1),IF(E44='Q2'!$D$2,0,1),IF(F44='Q3'!$D$2,0,1),IF(G44='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q44" s="11">
+      <c r="Q44" s="9">
         <f>SUM(IF(H44='Q5'!$D$2,0,1),IF(I44='Q6'!$D$2,0,1),IF(J44='Q7'!$D$2,0,1),IF(K44='Q8'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="R44" s="11">
+      <c r="R44" s="9">
         <f>SUM(IF(L44='Q9'!$D$2,0,1),IF(M44='Q10'!$D$2,0,1),IF(N44='Q11'!$D$2,0,1),IF(O44='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S44" s="11">
+      <c r="S44" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T44" s="10" t="str">
+      <c r="T44" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,58,63,68,72,76,79,82,85,91,94,6</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="str">
+      <c r="U44" s="8" t="str">
+        <f>IF(D44='Q1'!$D$2,1,0)&amp;","&amp;IF(E44='Q2'!$D$2,1,0)&amp;","&amp;IF(F44='Q3'!$D$2,1,0)&amp;","&amp;IF(G44='Q4'!$D$2,1,0)&amp;","&amp;IF(H44='Q5'!$D$2,1,0)&amp;","&amp;IF(I44='Q6'!$D$2,1,0)&amp;","&amp;IF(J44='Q7'!$D$2,1,0)&amp;","&amp;IF(K44='Q8'!$D$2,1,0)&amp;","&amp;IF(L44='Q9'!$D$2,1,0)&amp;","&amp;IF(M44='Q10'!$D$2,1,0)&amp;","&amp;IF(N44='Q11'!$D$2,1,0)&amp;","&amp;IF(O44='Q12'!$D$2,1,0)&amp;","&amp;S44</f>
+        <v>1,1,0,0,1,1,1,0,0,0,0,1,6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="str">
         <v/>
       </c>
-      <c r="B45" s="10" t="str">
+      <c r="B45" s="8" t="str">
         <v>11.00 / 12</v>
       </c>
-      <c r="C45" s="10" t="str">
+      <c r="C45" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="9">
         <f>IF(Respostas!I45='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I45='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I45='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I45='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>52</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="9">
         <f>IF(Respostas!L45='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L45='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L45='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L45='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="9">
         <f>IF(Respostas!O45='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O45='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O45='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O45='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>58</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="9">
         <f>IF(Respostas!R45='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R45='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R45='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R45='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="9">
         <f>IF(Respostas!U45='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U45='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U45='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U45='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="9">
         <f>IF(Respostas!X45='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X45='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X45='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X45='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="9">
         <f>IF(Respostas!AA45='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA45='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA45='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA45='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="9">
         <f>IF(Respostas!AD45='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD45='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD45='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD45='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="9">
         <f>IF(Respostas!AG45='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG45='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG45='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG45='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M45" s="9">
         <f>IF(Respostas!AJ45='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ45='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ45='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ45='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N45" s="9">
         <f>IF(Respostas!AM45='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM45='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM45='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM45='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>92</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O45" s="9">
         <f>IF(Respostas!AP45='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP45='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP45='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP45='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>96</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P45" s="9">
         <f>SUM(IF(D45='Q1'!$D$2,0,1),IF(E45='Q2'!$D$2,0,1),IF(F45='Q3'!$D$2,0,1),IF(G45='Q4'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q45" s="9">
         <f>SUM(IF(H45='Q5'!$D$2,0,1),IF(I45='Q6'!$D$2,0,1),IF(J45='Q7'!$D$2,0,1),IF(K45='Q8'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R45" s="9">
         <f>SUM(IF(L45='Q9'!$D$2,0,1),IF(M45='Q10'!$D$2,0,1),IF(N45='Q11'!$D$2,0,1),IF(O45='Q12'!$D$2,0,1))</f>
         <v>1</v>
       </c>
-      <c r="S45" s="11">
+      <c r="S45" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T45" s="10" t="str">
+      <c r="T45" s="8" t="str">
         <f t="shared" si="1"/>
         <v>52,53,58,62,68,72,76,77,83,86,92,96,4</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="str">
+      <c r="U45" s="8" t="str">
+        <f>IF(D45='Q1'!$D$2,1,0)&amp;","&amp;IF(E45='Q2'!$D$2,1,0)&amp;","&amp;IF(F45='Q3'!$D$2,1,0)&amp;","&amp;IF(G45='Q4'!$D$2,1,0)&amp;","&amp;IF(H45='Q5'!$D$2,1,0)&amp;","&amp;IF(I45='Q6'!$D$2,1,0)&amp;","&amp;IF(J45='Q7'!$D$2,1,0)&amp;","&amp;IF(K45='Q8'!$D$2,1,0)&amp;","&amp;IF(L45='Q9'!$D$2,1,0)&amp;","&amp;IF(M45='Q10'!$D$2,1,0)&amp;","&amp;IF(N45='Q11'!$D$2,1,0)&amp;","&amp;IF(O45='Q12'!$D$2,1,0)&amp;","&amp;S45</f>
+        <v>1,1,0,1,1,1,1,1,1,1,1,0,4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="str">
         <v>gabriel.l.baptista@gmail.com</v>
       </c>
-      <c r="B46" s="10" t="str">
+      <c r="B46" s="8" t="str">
         <v>11.00 / 12</v>
       </c>
-      <c r="C46" s="10" t="str">
+      <c r="C46" s="8" t="str">
         <v>Mestrado / Doutorado</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <f>IF(Respostas!I46='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I46='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I46='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I46='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="9">
         <f>IF(Respostas!L46='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L46='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L46='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L46='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="9">
         <f>IF(Respostas!O46='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O46='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O46='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O46='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>58</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="9">
         <f>IF(Respostas!R46='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R46='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R46='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R46='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="9">
         <f>IF(Respostas!U46='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U46='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U46='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U46='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="9">
         <f>IF(Respostas!X46='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X46='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X46='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X46='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>72</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="9">
         <f>IF(Respostas!AA46='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA46='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA46='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA46='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="9">
         <f>IF(Respostas!AD46='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD46='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD46='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD46='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>77</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="9">
         <f>IF(Respostas!AG46='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG46='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG46='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG46='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="9">
         <f>IF(Respostas!AJ46='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ46='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ46='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ46='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="9">
         <f>IF(Respostas!AM46='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM46='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM46='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM46='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>92</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O46" s="9">
         <f>IF(Respostas!AP46='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP46='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP46='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP46='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>94</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P46" s="9">
         <f>SUM(IF(D46='Q1'!$D$2,0,1),IF(E46='Q2'!$D$2,0,1),IF(F46='Q3'!$D$2,0,1),IF(G46='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="Q46" s="9">
         <f>SUM(IF(H46='Q5'!$D$2,0,1),IF(I46='Q6'!$D$2,0,1),IF(J46='Q7'!$D$2,0,1),IF(K46='Q8'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="R46" s="11">
+      <c r="R46" s="9">
         <f>SUM(IF(L46='Q9'!$D$2,0,1),IF(M46='Q10'!$D$2,0,1),IF(N46='Q11'!$D$2,0,1),IF(O46='Q12'!$D$2,0,1))</f>
         <v>0</v>
       </c>
-      <c r="S46" s="11">
+      <c r="S46" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T46" s="10" t="str">
+      <c r="T46" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,53,58,62,68,72,76,77,83,86,92,94,4</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="str">
+      <c r="U46" s="8" t="str">
+        <f>IF(D46='Q1'!$D$2,1,0)&amp;","&amp;IF(E46='Q2'!$D$2,1,0)&amp;","&amp;IF(F46='Q3'!$D$2,1,0)&amp;","&amp;IF(G46='Q4'!$D$2,1,0)&amp;","&amp;IF(H46='Q5'!$D$2,1,0)&amp;","&amp;IF(I46='Q6'!$D$2,1,0)&amp;","&amp;IF(J46='Q7'!$D$2,1,0)&amp;","&amp;IF(K46='Q8'!$D$2,1,0)&amp;","&amp;IF(L46='Q9'!$D$2,1,0)&amp;","&amp;IF(M46='Q10'!$D$2,1,0)&amp;","&amp;IF(N46='Q11'!$D$2,1,0)&amp;","&amp;IF(O46='Q12'!$D$2,1,0)&amp;","&amp;S46</f>
+        <v>0,1,0,1,1,1,1,1,1,1,1,1,4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="str">
         <v>wilsamara89@hotmail.com</v>
       </c>
-      <c r="B47" s="10" t="str">
+      <c r="B47" s="8" t="str">
         <v>6.00 / 12</v>
       </c>
-      <c r="C47" s="10" t="str">
+      <c r="C47" s="8" t="str">
         <v>Médio</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="9">
         <f>IF(Respostas!I47='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I47='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I47='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I47='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="9">
         <f>IF(Respostas!L47='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L47='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L47='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L47='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="9">
         <f>IF(Respostas!O47='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O47='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O47='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O47='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>58</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="9">
         <f>IF(Respostas!R47='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R47='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R47='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R47='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>62</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="9">
         <f>IF(Respostas!U47='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U47='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U47='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U47='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>68</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="9">
         <f>IF(Respostas!X47='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X47='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X47='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X47='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="9">
         <f>IF(Respostas!AA47='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA47='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA47='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA47='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>76</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="9">
         <f>IF(Respostas!AD47='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD47='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD47='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD47='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="9">
         <f>IF(Respostas!AG47='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG47='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG47='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG47='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>82</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="9">
         <f>IF(Respostas!AJ47='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ47='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ47='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ47='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>86</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="9">
         <f>IF(Respostas!AM47='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM47='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM47='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM47='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O47" s="9">
         <f>IF(Respostas!AP47='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP47='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP47='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP47='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>93</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P47" s="9">
         <f>SUM(IF(D47='Q1'!$D$2,0,1),IF(E47='Q2'!$D$2,0,1),IF(F47='Q3'!$D$2,0,1),IF(G47='Q4'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="Q47" s="11">
+      <c r="Q47" s="9">
         <f>SUM(IF(H47='Q5'!$D$2,0,1),IF(I47='Q6'!$D$2,0,1),IF(J47='Q7'!$D$2,0,1),IF(K47='Q8'!$D$2,0,1))</f>
         <v>2</v>
       </c>
-      <c r="R47" s="11">
+      <c r="R47" s="9">
         <f>SUM(IF(L47='Q9'!$D$2,0,1),IF(M47='Q10'!$D$2,0,1),IF(N47='Q11'!$D$2,0,1),IF(O47='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S47" s="11">
+      <c r="S47" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T47" s="10" t="str">
+      <c r="T47" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,53,58,62,68,71,76,79,82,86,90,93,6</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="str">
+      <c r="U47" s="8" t="str">
+        <f>IF(D47='Q1'!$D$2,1,0)&amp;","&amp;IF(E47='Q2'!$D$2,1,0)&amp;","&amp;IF(F47='Q3'!$D$2,1,0)&amp;","&amp;IF(G47='Q4'!$D$2,1,0)&amp;","&amp;IF(H47='Q5'!$D$2,1,0)&amp;","&amp;IF(I47='Q6'!$D$2,1,0)&amp;","&amp;IF(J47='Q7'!$D$2,1,0)&amp;","&amp;IF(K47='Q8'!$D$2,1,0)&amp;","&amp;IF(L47='Q9'!$D$2,1,0)&amp;","&amp;IF(M47='Q10'!$D$2,1,0)&amp;","&amp;IF(N47='Q11'!$D$2,1,0)&amp;","&amp;IF(O47='Q12'!$D$2,1,0)&amp;","&amp;S47</f>
+        <v>0,1,0,1,1,0,1,0,0,1,0,0,6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="str">
         <v/>
       </c>
-      <c r="B48" s="10" t="str">
+      <c r="B48" s="8" t="str">
         <v>1.00 / 12</v>
       </c>
-      <c r="C48" s="10" t="str">
+      <c r="C48" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="9">
         <f>IF(Respostas!I48='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I48='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I48='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I48='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>51</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="9">
         <f>IF(Respostas!L48='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L48='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L48='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L48='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>55</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="9">
         <f>IF(Respostas!O48='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O48='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O48='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O48='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>59</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="9">
         <f>IF(Respostas!R48='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R48='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R48='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R48='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>63</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="9">
         <f>IF(Respostas!U48='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U48='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U48='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U48='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>67</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="9">
         <f>IF(Respostas!X48='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X48='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X48='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X48='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="9">
         <f>IF(Respostas!AA48='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA48='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA48='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA48='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>75</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="9">
         <f>IF(Respostas!AD48='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD48='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD48='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD48='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>79</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="9">
         <f>IF(Respostas!AG48='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG48='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG48='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG48='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M48" s="11">
+      <c r="M48" s="9">
         <f>IF(Respostas!AJ48='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ48='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ48='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ48='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>87</v>
       </c>
-      <c r="N48" s="11">
+      <c r="N48" s="9">
         <f>IF(Respostas!AM48='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM48='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM48='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM48='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>91</v>
       </c>
-      <c r="O48" s="11">
+      <c r="O48" s="9">
         <f>IF(Respostas!AP48='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP48='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP48='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP48='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P48" s="11">
+      <c r="P48" s="9">
         <f>SUM(IF(D48='Q1'!$D$2,0,1),IF(E48='Q2'!$D$2,0,1),IF(F48='Q3'!$D$2,0,1),IF(G48='Q4'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="Q48" s="11">
+      <c r="Q48" s="9">
         <f>SUM(IF(H48='Q5'!$D$2,0,1),IF(I48='Q6'!$D$2,0,1),IF(J48='Q7'!$D$2,0,1),IF(K48='Q8'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="R48" s="11">
+      <c r="R48" s="9">
         <f>SUM(IF(L48='Q9'!$D$2,0,1),IF(M48='Q10'!$D$2,0,1),IF(N48='Q11'!$D$2,0,1),IF(O48='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S48" s="11">
+      <c r="S48" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T48" s="10" t="str">
+      <c r="T48" s="8" t="str">
         <f t="shared" si="1"/>
         <v>51,55,59,63,67,71,75,79,83,87,91,95,4</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="str">
+      <c r="U48" s="8" t="str">
+        <f>IF(D48='Q1'!$D$2,1,0)&amp;","&amp;IF(E48='Q2'!$D$2,1,0)&amp;","&amp;IF(F48='Q3'!$D$2,1,0)&amp;","&amp;IF(G48='Q4'!$D$2,1,0)&amp;","&amp;IF(H48='Q5'!$D$2,1,0)&amp;","&amp;IF(I48='Q6'!$D$2,1,0)&amp;","&amp;IF(J48='Q7'!$D$2,1,0)&amp;","&amp;IF(K48='Q8'!$D$2,1,0)&amp;","&amp;IF(L48='Q9'!$D$2,1,0)&amp;","&amp;IF(M48='Q10'!$D$2,1,0)&amp;","&amp;IF(N48='Q11'!$D$2,1,0)&amp;","&amp;IF(O48='Q12'!$D$2,1,0)&amp;","&amp;S48</f>
+        <v>0,0,0,0,0,0,0,0,1,0,0,0,4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="str">
         <v/>
       </c>
-      <c r="B49" s="10" t="str">
+      <c r="B49" s="8" t="str">
         <v>2.00 / 12</v>
       </c>
-      <c r="C49" s="10" t="str">
+      <c r="C49" s="8" t="str">
         <v>Superior (Graduação)</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="9">
         <f>IF(Respostas!I49='Q1'!$C$2,'Q1'!$B$2,IF(Respostas!I49='Q1'!$C$3,'Q1'!$B$3,IF(Respostas!I49='Q1'!$C$4,'Q1'!$B$4,IF(Respostas!I49='Q1'!$C$5,'Q1'!$B$5,0))))</f>
         <v>50</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="9">
         <f>IF(Respostas!L49='Q2'!$C$2,'Q2'!$B$2,IF(Respostas!L49='Q2'!$C$3,'Q2'!$B$3,IF(Respostas!L49='Q2'!$C$4,'Q2'!$B$4,IF(Respostas!L49='Q2'!$C$5,'Q2'!$B$5,0))))</f>
         <v>53</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="9">
         <f>IF(Respostas!O49='Q3'!$C$2,'Q3'!$B$2,IF(Respostas!O49='Q3'!$C$3,'Q3'!$B$3,IF(Respostas!O49='Q3'!$C$4,'Q3'!$B$4,IF(Respostas!O49='Q3'!$C$5,'Q3'!$B$5,0))))</f>
         <v>59</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="9">
         <f>IF(Respostas!R49='Q4'!$C$2,'Q4'!$B$2,IF(Respostas!R49='Q4'!$C$3,'Q4'!$B$3,IF(Respostas!R49='Q4'!$C$4,'Q4'!$B$4,IF(Respostas!R49='Q4'!$C$5,'Q4'!$B$5,0))))</f>
         <v>64</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="9">
         <f>IF(Respostas!U49='Q5'!$C$2,'Q5'!$B$2,IF(Respostas!U49='Q5'!$C$3,'Q5'!$B$3,IF(Respostas!U49='Q5'!$C$4,'Q5'!$B$4,IF(Respostas!U49='Q5'!$C$5,'Q5'!$B$5,0))))</f>
         <v>65</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="9">
         <f>IF(Respostas!X49='Q6'!$C$2,'Q6'!$B$2,IF(Respostas!X49='Q6'!$C$3,'Q6'!$B$3,IF(Respostas!X49='Q6'!$C$4,'Q6'!$B$4,IF(Respostas!X49='Q6'!$C$5,'Q6'!$B$5,0))))</f>
         <v>71</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="9">
         <f>IF(Respostas!AA49='Q7'!$C$2,'Q7'!$B$2,IF(Respostas!AA49='Q7'!$C$3,'Q7'!$B$3,IF(Respostas!AA49='Q7'!$C$4,'Q7'!$B$4,IF(Respostas!AA49='Q7'!$C$5,'Q7'!$B$5,0))))</f>
         <v>74</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="9">
         <f>IF(Respostas!AD49='Q8'!$C$2,'Q8'!$B$2,IF(Respostas!AD49='Q8'!$C$3,'Q8'!$B$3,IF(Respostas!AD49='Q8'!$C$4,'Q8'!$B$4,IF(Respostas!AD49='Q8'!$C$5,'Q8'!$B$5,0))))</f>
         <v>78</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="9">
         <f>IF(Respostas!AG49='Q9'!$C$2,'Q9'!$B$2,IF(Respostas!AG49='Q9'!$C$3,'Q9'!$B$3,IF(Respostas!AG49='Q9'!$C$4,'Q9'!$B$4,IF(Respostas!AG49='Q9'!$C$5,'Q9'!$B$5,0))))</f>
         <v>83</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M49" s="9">
         <f>IF(Respostas!AJ49='Q10'!$C$2,'Q10'!$B$2,IF(Respostas!AJ49='Q10'!$C$3,'Q10'!$B$3,IF(Respostas!AJ49='Q10'!$C$4,'Q10'!$B$4,IF(Respostas!AJ49='Q10'!$C$5,'Q10'!$B$5,0))))</f>
         <v>88</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N49" s="9">
         <f>IF(Respostas!AM49='Q11'!$C$2,'Q11'!$B$2,IF(Respostas!AM49='Q11'!$C$3,'Q11'!$B$3,IF(Respostas!AM49='Q11'!$C$4,'Q11'!$B$4,IF(Respostas!AM49='Q11'!$C$5,'Q11'!$B$5,0))))</f>
         <v>90</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O49" s="9">
         <f>IF(Respostas!AP49='Q12'!$C$2,'Q12'!$B$2,IF(Respostas!AP49='Q12'!$C$3,'Q12'!$B$3,IF(Respostas!AP49='Q12'!$C$4,'Q12'!$B$4,IF(Respostas!AP49='Q12'!$C$5,'Q12'!$B$5,0))))</f>
         <v>95</v>
       </c>
-      <c r="P49" s="11">
+      <c r="P49" s="9">
         <f>SUM(IF(D49='Q1'!$D$2,0,1),IF(E49='Q2'!$D$2,0,1),IF(F49='Q3'!$D$2,0,1),IF(G49='Q4'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="Q49" s="11">
+      <c r="Q49" s="9">
         <f>SUM(IF(H49='Q5'!$D$2,0,1),IF(I49='Q6'!$D$2,0,1),IF(J49='Q7'!$D$2,0,1),IF(K49='Q8'!$D$2,0,1))</f>
         <v>4</v>
       </c>
-      <c r="R49" s="11">
+      <c r="R49" s="9">
         <f>SUM(IF(L49='Q9'!$D$2,0,1),IF(M49='Q10'!$D$2,0,1),IF(N49='Q11'!$D$2,0,1),IF(O49='Q12'!$D$2,0,1))</f>
         <v>3</v>
       </c>
-      <c r="S49" s="11">
+      <c r="S49" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T49" s="10" t="str">
+      <c r="T49" s="8" t="str">
         <f t="shared" si="1"/>
         <v>50,53,59,64,65,71,74,78,83,88,90,95,5</v>
+      </c>
+      <c r="U49" s="8" t="str">
+        <f>IF(D49='Q1'!$D$2,1,0)&amp;","&amp;IF(E49='Q2'!$D$2,1,0)&amp;","&amp;IF(F49='Q3'!$D$2,1,0)&amp;","&amp;IF(G49='Q4'!$D$2,1,0)&amp;","&amp;IF(H49='Q5'!$D$2,1,0)&amp;","&amp;IF(I49='Q6'!$D$2,1,0)&amp;","&amp;IF(J49='Q7'!$D$2,1,0)&amp;","&amp;IF(K49='Q8'!$D$2,1,0)&amp;","&amp;IF(L49='Q9'!$D$2,1,0)&amp;","&amp;IF(M49='Q10'!$D$2,1,0)&amp;","&amp;IF(N49='Q11'!$D$2,1,0)&amp;","&amp;IF(O49='Q12'!$D$2,1,0)&amp;","&amp;S49</f>
+        <v>0,1,0,0,0,0,0,0,1,0,0,0,5</v>
       </c>
     </row>
   </sheetData>
@@ -12205,7 +12404,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
